--- a/ModelMusings/PilotFlexAccounting-CombinedPowellMead.xlsx
+++ b/ModelMusings/PilotFlexAccounting-CombinedPowellMead.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rosenberg\Work\USU\Research\ColoradoRiver\RCode\ColoradoRiverCoding2\ModelMusings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB661E2D-EDF3-4FBD-AB62-5F936BAC4CDE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6758ECBF-9A0A-4B92-A0EC-ECD66D3DB25A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6645" activeTab="2" xr2:uid="{5373AB19-D84C-490D-97DC-C516D358024A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6645" xr2:uid="{5373AB19-D84C-490D-97DC-C516D358024A}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe-Directions" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="368">
   <si>
     <t>Year 1</t>
   </si>
@@ -1328,6 +1328,15 @@
   <si>
     <t>MandatoryConservation</t>
   </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>5.0.1</t>
+  </si>
+  <si>
+    <t>In Law of River workbook, assume First Nations consume all available water</t>
+  </si>
 </sst>
 </file>
 
@@ -1827,7 +1836,7 @@
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="237">
+  <cellXfs count="240">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2318,6 +2327,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="17" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2361,30 +2394,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="17" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2472,6 +2481,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -26589,7 +26607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{447CC9A2-4C52-453A-A3CD-EA6E59E26162}">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="A37" sqref="A37:L37"/>
     </sheetView>
   </sheetViews>
@@ -26609,20 +26627,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="192" t="s">
         <v>355</v>
       </c>
-      <c r="B1" s="207"/>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
-      <c r="I1" s="207"/>
-      <c r="J1" s="207"/>
-      <c r="K1" s="207"/>
-      <c r="L1" s="207"/>
+      <c r="B1" s="192"/>
+      <c r="C1" s="192"/>
+      <c r="D1" s="192"/>
+      <c r="E1" s="192"/>
+      <c r="F1" s="192"/>
+      <c r="G1" s="192"/>
+      <c r="H1" s="192"/>
+      <c r="I1" s="192"/>
+      <c r="J1" s="192"/>
+      <c r="K1" s="192"/>
+      <c r="L1" s="192"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -26650,59 +26668,59 @@
       </c>
     </row>
     <row r="4" spans="1:18" s="59" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="201" t="s">
+      <c r="A4" s="186" t="s">
         <v>332</v>
       </c>
-      <c r="B4" s="202"/>
-      <c r="C4" s="202"/>
-      <c r="D4" s="202"/>
-      <c r="E4" s="202"/>
-      <c r="F4" s="202"/>
-      <c r="G4" s="202"/>
-      <c r="H4" s="202"/>
-      <c r="I4" s="202"/>
-      <c r="J4" s="202"/>
-      <c r="K4" s="202"/>
-      <c r="L4" s="203"/>
-      <c r="N4" s="200" t="s">
+      <c r="B4" s="187"/>
+      <c r="C4" s="187"/>
+      <c r="D4" s="187"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="187"/>
+      <c r="G4" s="187"/>
+      <c r="H4" s="187"/>
+      <c r="I4" s="187"/>
+      <c r="J4" s="187"/>
+      <c r="K4" s="187"/>
+      <c r="L4" s="188"/>
+      <c r="N4" s="185" t="s">
         <v>196</v>
       </c>
-      <c r="O4" s="200"/>
-      <c r="P4" s="200"/>
-      <c r="Q4" s="200"/>
-      <c r="R4" s="200"/>
+      <c r="O4" s="185"/>
+      <c r="P4" s="185"/>
+      <c r="Q4" s="185"/>
+      <c r="R4" s="185"/>
     </row>
     <row r="5" spans="1:18" s="94" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="201" t="s">
+      <c r="A5" s="186" t="s">
         <v>344</v>
       </c>
-      <c r="B5" s="202"/>
-      <c r="C5" s="202"/>
-      <c r="D5" s="202"/>
-      <c r="E5" s="202"/>
-      <c r="F5" s="202"/>
-      <c r="G5" s="202"/>
-      <c r="H5" s="202"/>
-      <c r="I5" s="202"/>
-      <c r="J5" s="202"/>
-      <c r="K5" s="202"/>
-      <c r="L5" s="203"/>
+      <c r="B5" s="187"/>
+      <c r="C5" s="187"/>
+      <c r="D5" s="187"/>
+      <c r="E5" s="187"/>
+      <c r="F5" s="187"/>
+      <c r="G5" s="187"/>
+      <c r="H5" s="187"/>
+      <c r="I5" s="187"/>
+      <c r="J5" s="187"/>
+      <c r="K5" s="187"/>
+      <c r="L5" s="188"/>
     </row>
     <row r="6" spans="1:18" s="94" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="204" t="s">
+      <c r="A6" s="189" t="s">
         <v>340</v>
       </c>
-      <c r="B6" s="205"/>
-      <c r="C6" s="205"/>
-      <c r="D6" s="205"/>
-      <c r="E6" s="205"/>
-      <c r="F6" s="205"/>
-      <c r="G6" s="205"/>
-      <c r="H6" s="205"/>
-      <c r="I6" s="205"/>
-      <c r="J6" s="205"/>
-      <c r="K6" s="205"/>
-      <c r="L6" s="206"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="190"/>
+      <c r="G6" s="190"/>
+      <c r="H6" s="190"/>
+      <c r="I6" s="190"/>
+      <c r="J6" s="190"/>
+      <c r="K6" s="190"/>
+      <c r="L6" s="191"/>
       <c r="N6" s="180" t="s">
         <v>347</v>
       </c>
@@ -26722,106 +26740,106 @@
       <c r="L7" s="125"/>
     </row>
     <row r="8" spans="1:18" s="94" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="195" t="s">
+      <c r="A8" s="203" t="s">
         <v>264</v>
       </c>
-      <c r="B8" s="196"/>
-      <c r="C8" s="196"/>
-      <c r="D8" s="196"/>
-      <c r="E8" s="196"/>
-      <c r="F8" s="196"/>
-      <c r="G8" s="196"/>
-      <c r="H8" s="196"/>
-      <c r="I8" s="196"/>
-      <c r="J8" s="196"/>
-      <c r="K8" s="196"/>
-      <c r="L8" s="197"/>
+      <c r="B8" s="204"/>
+      <c r="C8" s="204"/>
+      <c r="D8" s="204"/>
+      <c r="E8" s="204"/>
+      <c r="F8" s="204"/>
+      <c r="G8" s="204"/>
+      <c r="H8" s="204"/>
+      <c r="I8" s="204"/>
+      <c r="J8" s="204"/>
+      <c r="K8" s="204"/>
+      <c r="L8" s="205"/>
       <c r="N8" s="1" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:18" s="94" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="192" t="s">
+      <c r="A9" s="200" t="s">
         <v>346</v>
       </c>
-      <c r="B9" s="193"/>
-      <c r="C9" s="193"/>
-      <c r="D9" s="193"/>
-      <c r="E9" s="193"/>
-      <c r="F9" s="193"/>
-      <c r="G9" s="193"/>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
-      <c r="J9" s="193"/>
-      <c r="K9" s="193"/>
-      <c r="L9" s="194"/>
+      <c r="B9" s="201"/>
+      <c r="C9" s="201"/>
+      <c r="D9" s="201"/>
+      <c r="E9" s="201"/>
+      <c r="F9" s="201"/>
+      <c r="G9" s="201"/>
+      <c r="H9" s="201"/>
+      <c r="I9" s="201"/>
+      <c r="J9" s="201"/>
+      <c r="K9" s="201"/>
+      <c r="L9" s="202"/>
       <c r="N9" s="117" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="94" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="198" t="s">
+      <c r="A10" s="206" t="s">
         <v>265</v>
       </c>
-      <c r="B10" s="193"/>
-      <c r="C10" s="193"/>
-      <c r="D10" s="193"/>
-      <c r="E10" s="193"/>
-      <c r="F10" s="193"/>
-      <c r="G10" s="193"/>
-      <c r="H10" s="193"/>
-      <c r="I10" s="193"/>
-      <c r="J10" s="193"/>
-      <c r="K10" s="193"/>
-      <c r="L10" s="194"/>
+      <c r="B10" s="201"/>
+      <c r="C10" s="201"/>
+      <c r="D10" s="201"/>
+      <c r="E10" s="201"/>
+      <c r="F10" s="201"/>
+      <c r="G10" s="201"/>
+      <c r="H10" s="201"/>
+      <c r="I10" s="201"/>
+      <c r="J10" s="201"/>
+      <c r="K10" s="201"/>
+      <c r="L10" s="202"/>
     </row>
     <row r="11" spans="1:18" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="199" t="s">
+      <c r="A11" s="207" t="s">
         <v>262</v>
       </c>
-      <c r="B11" s="193"/>
-      <c r="C11" s="193"/>
-      <c r="D11" s="193"/>
-      <c r="E11" s="193"/>
-      <c r="F11" s="193"/>
-      <c r="G11" s="193"/>
-      <c r="H11" s="193"/>
-      <c r="I11" s="193"/>
-      <c r="J11" s="193"/>
-      <c r="K11" s="193"/>
-      <c r="L11" s="194"/>
+      <c r="B11" s="201"/>
+      <c r="C11" s="201"/>
+      <c r="D11" s="201"/>
+      <c r="E11" s="201"/>
+      <c r="F11" s="201"/>
+      <c r="G11" s="201"/>
+      <c r="H11" s="201"/>
+      <c r="I11" s="201"/>
+      <c r="J11" s="201"/>
+      <c r="K11" s="201"/>
+      <c r="L11" s="202"/>
     </row>
     <row r="12" spans="1:18" s="65" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="186" t="s">
+      <c r="A12" s="194" t="s">
         <v>266</v>
       </c>
-      <c r="B12" s="187"/>
-      <c r="C12" s="187"/>
-      <c r="D12" s="187"/>
-      <c r="E12" s="187"/>
-      <c r="F12" s="187"/>
-      <c r="G12" s="187"/>
-      <c r="H12" s="187"/>
-      <c r="I12" s="187"/>
-      <c r="J12" s="187"/>
-      <c r="K12" s="187"/>
-      <c r="L12" s="188"/>
+      <c r="B12" s="195"/>
+      <c r="C12" s="195"/>
+      <c r="D12" s="195"/>
+      <c r="E12" s="195"/>
+      <c r="F12" s="195"/>
+      <c r="G12" s="195"/>
+      <c r="H12" s="195"/>
+      <c r="I12" s="195"/>
+      <c r="J12" s="195"/>
+      <c r="K12" s="195"/>
+      <c r="L12" s="196"/>
     </row>
     <row r="13" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="189" t="s">
+      <c r="A13" s="197" t="s">
         <v>341</v>
       </c>
-      <c r="B13" s="190"/>
-      <c r="C13" s="190"/>
-      <c r="D13" s="190"/>
-      <c r="E13" s="190"/>
-      <c r="F13" s="190"/>
-      <c r="G13" s="190"/>
-      <c r="H13" s="190"/>
-      <c r="I13" s="190"/>
-      <c r="J13" s="190"/>
-      <c r="K13" s="190"/>
-      <c r="L13" s="191"/>
+      <c r="B13" s="198"/>
+      <c r="C13" s="198"/>
+      <c r="D13" s="198"/>
+      <c r="E13" s="198"/>
+      <c r="F13" s="198"/>
+      <c r="G13" s="198"/>
+      <c r="H13" s="198"/>
+      <c r="I13" s="198"/>
+      <c r="J13" s="198"/>
+      <c r="K13" s="198"/>
+      <c r="L13" s="199"/>
     </row>
     <row r="14" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="146"/>
@@ -26985,30 +27003,25 @@
       </c>
     </row>
     <row r="37" spans="1:12" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="185" t="s">
+      <c r="A37" s="193" t="s">
         <v>343</v>
       </c>
-      <c r="B37" s="185"/>
-      <c r="C37" s="185"/>
-      <c r="D37" s="185"/>
-      <c r="E37" s="185"/>
-      <c r="F37" s="185"/>
-      <c r="G37" s="185"/>
-      <c r="H37" s="185"/>
-      <c r="I37" s="185"/>
-      <c r="J37" s="185"/>
-      <c r="K37" s="185"/>
-      <c r="L37" s="185"/>
+      <c r="B37" s="193"/>
+      <c r="C37" s="193"/>
+      <c r="D37" s="193"/>
+      <c r="E37" s="193"/>
+      <c r="F37" s="193"/>
+      <c r="G37" s="193"/>
+      <c r="H37" s="193"/>
+      <c r="I37" s="193"/>
+      <c r="J37" s="193"/>
+      <c r="K37" s="193"/>
+      <c r="L37" s="193"/>
     </row>
     <row r="42" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A1:L1"/>
     <mergeCell ref="A37:L37"/>
     <mergeCell ref="A12:L12"/>
     <mergeCell ref="A13:L13"/>
@@ -27016,6 +27029,11 @@
     <mergeCell ref="A8:L8"/>
     <mergeCell ref="A10:L10"/>
     <mergeCell ref="A11:L11"/>
+    <mergeCell ref="N4:R4"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A30" r:id="rId1" xr:uid="{6B934EC2-E381-41EE-938C-08FAF5E51BBE}"/>
@@ -42080,10 +42098,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9BF02C3-B992-44C7-A79C-D1E41573911A}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42139,59 +42157,59 @@
       <c r="I2" s="41"/>
       <c r="J2" s="42"/>
     </row>
-    <row r="3" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="62">
         <v>44581</v>
       </c>
       <c r="B3" s="168" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="C3" s="61" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="D3" s="60" t="s">
         <v>95</v>
       </c>
       <c r="E3" s="60" t="s">
-        <v>362</v>
-      </c>
-      <c r="F3" s="62" t="s">
-        <v>363</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="F3" s="62"/>
       <c r="H3" s="41"/>
       <c r="I3" s="41"/>
       <c r="J3" s="42"/>
     </row>
     <row r="4" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="62">
-        <v>44532</v>
+        <v>44581</v>
       </c>
       <c r="B4" s="168" t="s">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="C4" s="61" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="D4" s="60" t="s">
         <v>95</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="F4" s="62"/>
+        <v>362</v>
+      </c>
+      <c r="F4" s="62" t="s">
+        <v>363</v>
+      </c>
       <c r="H4" s="41"/>
       <c r="I4" s="41"/>
       <c r="J4" s="43"/>
     </row>
     <row r="5" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="62">
-        <v>44501</v>
+        <v>44532</v>
       </c>
       <c r="B5" s="168" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C5" s="61" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="D5" s="60" t="s">
         <v>95</v>
@@ -42206,13 +42224,13 @@
     </row>
     <row r="6" spans="1:10" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="62">
-        <v>44500</v>
+        <v>44501</v>
       </c>
       <c r="B6" s="168" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D6" s="60" t="s">
         <v>95</v>
@@ -42229,21 +42247,21 @@
       </c>
       <c r="J6" s="42"/>
     </row>
-    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="62">
-        <v>44496</v>
+        <v>44500</v>
       </c>
       <c r="B7" s="168" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C7" s="61" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="D7" s="60" t="s">
         <v>95</v>
       </c>
       <c r="E7" s="60" t="s">
-        <v>321</v>
+        <v>95</v>
       </c>
       <c r="F7" s="62"/>
       <c r="H7" s="41" t="s">
@@ -42256,25 +42274,23 @@
         <v>44482</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="62">
         <v>44496</v>
       </c>
       <c r="B8" s="168" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C8" s="61" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D8" s="60" t="s">
         <v>95</v>
       </c>
       <c r="E8" s="60" t="s">
-        <v>349</v>
-      </c>
-      <c r="F8" s="62">
-        <v>44495</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="F8" s="62"/>
       <c r="H8" s="41" t="s">
         <v>323</v>
       </c>
@@ -42283,21 +42299,25 @@
       </c>
       <c r="J8" s="43"/>
     </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="62">
-        <v>44480</v>
+        <v>44496</v>
       </c>
       <c r="B9" s="168" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="C9" s="61" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="D9" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="60"/>
-      <c r="F9" s="62"/>
+      <c r="E9" s="60" t="s">
+        <v>349</v>
+      </c>
+      <c r="F9" s="62">
+        <v>44495</v>
+      </c>
       <c r="H9" s="41" t="s">
         <v>159</v>
       </c>
@@ -42313,17 +42333,15 @@
         <v>44480</v>
       </c>
       <c r="B10" s="168" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C10" s="61" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D10" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="E10" s="60" t="s">
-        <v>95</v>
-      </c>
+      <c r="E10" s="60"/>
       <c r="F10" s="62"/>
       <c r="H10" s="41" t="s">
         <v>206</v>
@@ -42340,20 +42358,18 @@
         <v>44480</v>
       </c>
       <c r="B11" s="168" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C11" s="61" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D11" s="60" t="s">
         <v>95</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>270</v>
-      </c>
-      <c r="F11" s="62" t="s">
-        <v>271</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="F11" s="62"/>
       <c r="H11" s="41" t="s">
         <v>157</v>
       </c>
@@ -42366,21 +42382,23 @@
     </row>
     <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="62">
-        <v>44474</v>
-      </c>
-      <c r="B12" s="60">
-        <v>3.7</v>
+        <v>44480</v>
+      </c>
+      <c r="B12" s="168" t="s">
+        <v>318</v>
       </c>
       <c r="C12" s="61" t="s">
-        <v>253</v>
+        <v>315</v>
       </c>
       <c r="D12" s="60" t="s">
         <v>95</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="F12" s="62"/>
+        <v>270</v>
+      </c>
+      <c r="F12" s="62" t="s">
+        <v>271</v>
+      </c>
       <c r="H12" s="41" t="s">
         <v>158</v>
       </c>
@@ -42393,57 +42411,57 @@
     </row>
     <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="62">
-        <v>44463</v>
-      </c>
-      <c r="B13" s="60" t="s">
-        <v>334</v>
+        <v>44474</v>
+      </c>
+      <c r="B13" s="60">
+        <v>3.7</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="D13" s="60" t="s">
         <v>95</v>
       </c>
       <c r="E13" s="60" t="s">
-        <v>350</v>
-      </c>
-      <c r="F13" s="62">
-        <v>44432</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="F13" s="62"/>
       <c r="H13" s="41"/>
       <c r="I13" s="41"/>
       <c r="J13" s="42"/>
     </row>
-    <row r="14" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="62">
-        <v>44459</v>
+        <v>44463</v>
       </c>
       <c r="B14" s="60" t="s">
-        <v>217</v>
+        <v>334</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="D14" s="60" t="s">
         <v>95</v>
       </c>
       <c r="E14" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="F14" s="62"/>
+        <v>350</v>
+      </c>
+      <c r="F14" s="62">
+        <v>44432</v>
+      </c>
       <c r="H14" s="41"/>
       <c r="I14" s="41"/>
       <c r="J14" s="42"/>
     </row>
-    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="62">
         <v>44459</v>
       </c>
-      <c r="B15" s="60">
-        <v>3.6</v>
+      <c r="B15" s="60" t="s">
+        <v>217</v>
       </c>
       <c r="C15" s="61" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D15" s="60" t="s">
         <v>95</v>
@@ -42456,15 +42474,15 @@
       <c r="I15" s="41"/>
       <c r="J15" s="42"/>
     </row>
-    <row r="16" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="62">
-        <v>44432</v>
+        <v>44459</v>
       </c>
       <c r="B16" s="60">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="C16" s="61" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="D16" s="60" t="s">
         <v>95</v>
@@ -42472,14 +42490,12 @@
       <c r="E16" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="62">
-        <v>44424</v>
-      </c>
+      <c r="F16" s="62"/>
       <c r="H16" s="41"/>
       <c r="I16" s="41"/>
       <c r="J16" s="42"/>
     </row>
-    <row r="17" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="62">
         <v>44432</v>
       </c>
@@ -42487,19 +42503,19 @@
         <v>3.5</v>
       </c>
       <c r="C17" s="61" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D17" s="60" t="s">
         <v>95</v>
       </c>
       <c r="E17" s="60" t="s">
-        <v>351</v>
+        <v>95</v>
       </c>
       <c r="F17" s="62">
         <v>44424</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A18" s="62">
         <v>44432</v>
       </c>
@@ -42507,101 +42523,101 @@
         <v>3.5</v>
       </c>
       <c r="C18" s="61" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="D18" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="E18" s="60"/>
-      <c r="F18" s="62"/>
-    </row>
-    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="E18" s="60" t="s">
+        <v>351</v>
+      </c>
+      <c r="F18" s="62">
+        <v>44424</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="62">
-        <v>44423</v>
-      </c>
-      <c r="B19" s="60" t="s">
-        <v>203</v>
+        <v>44432</v>
+      </c>
+      <c r="B19" s="60">
+        <v>3.5</v>
       </c>
       <c r="C19" s="61" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D19" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="E19" s="60" t="s">
-        <v>95</v>
-      </c>
+      <c r="E19" s="60"/>
       <c r="F19" s="62"/>
     </row>
     <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="62">
-        <v>44405</v>
+        <v>44423</v>
       </c>
       <c r="B20" s="60" t="s">
-        <v>200</v>
-      </c>
-      <c r="C20" s="41" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="C20" s="61" t="s">
+        <v>204</v>
       </c>
       <c r="D20" s="60" t="s">
         <v>95</v>
       </c>
       <c r="E20" s="60" t="s">
-        <v>352</v>
-      </c>
-      <c r="F20" s="62">
-        <v>44405</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="F20" s="62"/>
     </row>
     <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="62">
         <v>44405</v>
       </c>
       <c r="B21" s="60" t="s">
-        <v>198</v>
-      </c>
-      <c r="C21" s="61" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>202</v>
       </c>
       <c r="D21" s="60" t="s">
         <v>95</v>
       </c>
       <c r="E21" s="60" t="s">
-        <v>95</v>
+        <v>352</v>
       </c>
       <c r="F21" s="62">
         <v>44405</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="62">
         <v>44405</v>
       </c>
       <c r="B22" s="60" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="C22" s="61" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D22" s="60" t="s">
         <v>95</v>
       </c>
       <c r="E22" s="60" t="s">
-        <v>352</v>
+        <v>95</v>
       </c>
       <c r="F22" s="62">
-        <v>44391</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="60" t="s">
-        <v>180</v>
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="62">
+        <v>44405</v>
       </c>
       <c r="B23" s="60" t="s">
-        <v>179</v>
-      </c>
-      <c r="C23" s="41" t="s">
-        <v>181</v>
+        <v>183</v>
+      </c>
+      <c r="C23" s="61" t="s">
+        <v>197</v>
       </c>
       <c r="D23" s="60" t="s">
         <v>95</v>
@@ -42613,7 +42629,7 @@
         <v>44391</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="60" t="s">
         <v>180</v>
       </c>
@@ -42621,7 +42637,7 @@
         <v>179</v>
       </c>
       <c r="C24" s="41" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="D24" s="60" t="s">
         <v>95</v>
@@ -42633,15 +42649,15 @@
         <v>44391</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A25" s="62">
-        <v>44403</v>
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="60" t="s">
+        <v>180</v>
       </c>
       <c r="B25" s="60" t="s">
-        <v>160</v>
-      </c>
-      <c r="C25" s="61" t="s">
-        <v>161</v>
+        <v>179</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>156</v>
       </c>
       <c r="D25" s="60" t="s">
         <v>95</v>
@@ -42653,76 +42669,75 @@
         <v>44391</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="43">
-        <v>44389</v>
-      </c>
-      <c r="B26" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="C26" s="41" t="s">
-        <v>153</v>
-      </c>
-      <c r="D26" s="44" t="s">
+    <row r="26" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A26" s="62">
+        <v>44403</v>
+      </c>
+      <c r="B26" s="60" t="s">
+        <v>160</v>
+      </c>
+      <c r="C26" s="61" t="s">
+        <v>161</v>
+      </c>
+      <c r="D26" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="E26" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="F26" s="43">
-        <v>44389</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="E26" s="60" t="s">
+        <v>352</v>
+      </c>
+      <c r="F26" s="62">
+        <v>44391</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="43">
         <v>44389</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C27" s="41" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D27" s="44" t="s">
         <v>95</v>
       </c>
       <c r="E27" s="44" t="s">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="F27" s="43">
-        <v>44385</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="43">
-        <v>44385</v>
+        <v>44389</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="C28" s="41" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="D28" s="44" t="s">
         <v>95</v>
       </c>
       <c r="E28" s="44" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="F28" s="43">
-        <f>A28</f>
         <v>44385</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="43">
-        <v>44384</v>
+        <v>44385</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C29" s="41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D29" s="44" t="s">
         <v>95</v>
@@ -42731,18 +42746,19 @@
         <v>95</v>
       </c>
       <c r="F29" s="43">
-        <v>44384</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <f>A29</f>
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="43">
         <v>44384</v>
       </c>
       <c r="B30" s="42" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C30" s="41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D30" s="44" t="s">
         <v>95</v>
@@ -42754,15 +42770,15 @@
         <v>44384</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="43">
-        <v>44378</v>
+        <v>44384</v>
       </c>
       <c r="B31" s="42" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C31" s="41" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="D31" s="44" t="s">
         <v>95</v>
@@ -42771,18 +42787,18 @@
         <v>95</v>
       </c>
       <c r="F31" s="43">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="43">
         <v>44378</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="43">
-        <v>44377</v>
-      </c>
       <c r="B32" s="42" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C32" s="41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D32" s="44" t="s">
         <v>95</v>
@@ -42791,38 +42807,38 @@
         <v>95</v>
       </c>
       <c r="F32" s="43">
-        <v>44377</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>44378</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="43">
         <v>44377</v>
       </c>
       <c r="B33" s="42" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D33" s="44" t="s">
         <v>95</v>
       </c>
       <c r="E33" s="44" t="s">
-        <v>353</v>
+        <v>95</v>
       </c>
       <c r="F33" s="43">
-        <v>44372</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>44377</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A34" s="43">
         <v>44377</v>
       </c>
-      <c r="B34" s="42">
-        <v>3.3</v>
+      <c r="B34" s="42" t="s">
+        <v>115</v>
       </c>
       <c r="C34" s="41" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D34" s="44" t="s">
         <v>95</v>
@@ -42834,35 +42850,35 @@
         <v>44372</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="43">
         <v>44377</v>
       </c>
-      <c r="B35" s="42" t="s">
-        <v>112</v>
+      <c r="B35" s="42">
+        <v>3.3</v>
       </c>
       <c r="C35" s="41" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D35" s="44" t="s">
         <v>95</v>
       </c>
       <c r="E35" s="44" t="s">
-        <v>95</v>
+        <v>353</v>
       </c>
       <c r="F35" s="43">
+        <v>44372</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="43">
         <v>44377</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A36" s="43">
-        <v>44367</v>
-      </c>
-      <c r="B36" s="42">
-        <v>3.2</v>
+      <c r="B36" s="42" t="s">
+        <v>112</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D36" s="44" t="s">
         <v>95</v>
@@ -42871,18 +42887,18 @@
         <v>95</v>
       </c>
       <c r="F36" s="43">
+        <v>44377</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A37" s="43">
         <v>44367</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="43">
-        <v>44331</v>
-      </c>
       <c r="B37" s="42">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D37" s="44" t="s">
         <v>95</v>
@@ -42891,86 +42907,106 @@
         <v>95</v>
       </c>
       <c r="F37" s="43">
+        <v>44367</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="43">
         <v>44331</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A38" s="43">
-        <v>44319</v>
-      </c>
       <c r="B38" s="42">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="C38" s="41" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D38" s="44" t="s">
         <v>95</v>
       </c>
       <c r="E38" s="44" t="s">
-        <v>354</v>
+        <v>95</v>
       </c>
       <c r="F38" s="43">
-        <v>44315</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>44331</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="43">
-        <v>44307</v>
+        <v>44319</v>
       </c>
       <c r="B39" s="42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D39" s="44" t="s">
         <v>95</v>
       </c>
       <c r="E39" s="44" t="s">
-        <v>155</v>
+        <v>354</v>
       </c>
       <c r="F39" s="43">
-        <v>44294</v>
+        <v>44315</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="43">
-        <v>44293</v>
-      </c>
-      <c r="B40" s="45">
-        <v>1</v>
+        <v>44307</v>
+      </c>
+      <c r="B40" s="42">
+        <v>2</v>
       </c>
       <c r="C40" s="41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D40" s="44" t="s">
         <v>95</v>
       </c>
       <c r="E40" s="44" t="s">
-        <v>354</v>
+        <v>155</v>
       </c>
       <c r="F40" s="43">
-        <v>44291</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44294</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="43">
-        <v>44291</v>
+        <v>44293</v>
       </c>
       <c r="B41" s="45">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C41" s="41" t="s">
-        <v>333</v>
+        <v>106</v>
       </c>
       <c r="D41" s="44" t="s">
         <v>95</v>
       </c>
       <c r="E41" s="44" t="s">
+        <v>354</v>
+      </c>
+      <c r="F41" s="43">
+        <v>44291</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="43">
+        <v>44291</v>
+      </c>
+      <c r="B42" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="C42" s="41" t="s">
+        <v>333</v>
+      </c>
+      <c r="D42" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="F41" s="43">
+      <c r="E42" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="F42" s="43">
         <v>44285</v>
       </c>
     </row>
@@ -42983,7 +43019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5BF7D8F-86F3-47E9-AB85-EE9B4CAB70E4}">
   <dimension ref="A1:P144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -48437,10 +48473,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C26E2B-D89A-4E77-AA63-A653F9E68AE0}">
-  <dimension ref="A1:P144"/>
+  <dimension ref="A1:P142"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView topLeftCell="A78" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48581,7 +48617,9 @@
       <c r="B8" s="183" t="s">
         <v>356</v>
       </c>
-      <c r="C8" s="217"/>
+      <c r="C8" s="222" t="s">
+        <v>357</v>
+      </c>
       <c r="D8" s="217"/>
       <c r="E8" s="217"/>
       <c r="F8" s="217"/>
@@ -48593,12 +48631,17 @@
         <f>IF(Master!A9="","",Master!A9)</f>
         <v>First Nations</v>
       </c>
-      <c r="B9" s="181"/>
-      <c r="C9" s="223"/>
-      <c r="D9" s="223"/>
-      <c r="E9" s="223"/>
-      <c r="F9" s="223"/>
-      <c r="G9" s="223"/>
+      <c r="B9" s="183" t="str">
+        <f>IF($A9&lt;&gt;"",B8,"")</f>
+        <v>Law</v>
+      </c>
+      <c r="C9" s="237" t="s">
+        <v>365</v>
+      </c>
+      <c r="D9" s="238"/>
+      <c r="E9" s="238"/>
+      <c r="F9" s="238"/>
+      <c r="G9" s="239"/>
       <c r="N9" s="160"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -50503,11 +50546,11 @@
         <v xml:space="preserve">   Enter withdraw [maf] within available water</v>
       </c>
       <c r="C65" s="104" t="str">
-        <f>IF(C$28&lt;&gt;"",IF(C64&gt;4.2,4.2,MAX(C64,0)),"")</f>
+        <f t="shared" ref="C65:G65" si="22">IF(C$28&lt;&gt;"",IF(C64&gt;4.2,4.2,MAX(C64,0)),"")</f>
         <v/>
       </c>
       <c r="D65" s="104" t="str">
-        <f t="shared" ref="D65:G65" si="22">IF(D$28&lt;&gt;"",IF(D64&gt;4.2,4.2,MAX(D64,0)),"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E65" s="104" t="str">
@@ -51534,11 +51577,26 @@
         <f>IF(A96="","",$A$65)</f>
         <v xml:space="preserve">   Enter withdraw [maf] within available water</v>
       </c>
-      <c r="C97" s="104"/>
-      <c r="D97" s="104"/>
-      <c r="E97" s="104"/>
-      <c r="F97" s="104"/>
-      <c r="G97" s="104"/>
+      <c r="C97" s="104" t="str">
+        <f>IF(OR(C$28="",$A97=""),"",C96)</f>
+        <v/>
+      </c>
+      <c r="D97" s="104" t="str">
+        <f t="shared" ref="D97:G97" si="37">IF(OR(D$28="",$A97=""),"",D96)</f>
+        <v/>
+      </c>
+      <c r="E97" s="104" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="F97" s="104" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="G97" s="104" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
       <c r="H97" s="104"/>
       <c r="I97" s="104"/>
       <c r="J97" s="104"/>
@@ -51558,39 +51616,39 @@
         <v/>
       </c>
       <c r="D98" s="47" t="str">
-        <f t="shared" ref="D98:L98" si="37">IF(OR(D$28="",$A98=""),"",D96-D97)</f>
+        <f t="shared" ref="D98:L98" si="38">IF(OR(D$28="",$A98=""),"",D96-D97)</f>
         <v/>
       </c>
       <c r="E98" s="47" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="F98" s="47" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="G98" s="47" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="H98" s="47" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="I98" s="47" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="J98" s="47" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="K98" s="47" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L98" s="47" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N98" s="159" t="s">
@@ -51672,47 +51730,47 @@
         <v xml:space="preserve">   Net trade volume all players (should be zero)</v>
       </c>
       <c r="C103" s="48" t="str">
-        <f t="shared" ref="C103:M103" si="38">IF(OR(C$28="",$A103=""),"",C$116)</f>
+        <f t="shared" ref="C103:M103" si="39">IF(OR(C$28="",$A103=""),"",C$116)</f>
         <v/>
       </c>
       <c r="D103" s="48" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="E103" s="48" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="F103" s="48" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="G103" s="48" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="H103" s="48" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I103" s="48" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="J103" s="48" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="K103" s="48" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="L103" s="48" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="M103" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="N103" s="160"/>
@@ -51727,39 +51785,39 @@
         <v/>
       </c>
       <c r="D104" s="13" t="str">
-        <f t="shared" ref="D104:L104" si="39">IF(OR(D$28="",$A104=""),"",D38+D56-D48+D101)</f>
+        <f t="shared" ref="D104:L104" si="40">IF(OR(D$28="",$A104=""),"",D38+D56-D48+D101)</f>
         <v/>
       </c>
       <c r="E104" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="F104" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="G104" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="H104" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I104" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="J104" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K104" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L104" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N104" s="160"/>
@@ -51791,39 +51849,39 @@
         <v/>
       </c>
       <c r="D106" s="47" t="str">
-        <f t="shared" ref="D106:L106" si="40">IF(OR(D$28="",$A106=""),"",D104-D105)</f>
+        <f t="shared" ref="D106:L106" si="41">IF(OR(D$28="",$A106=""),"",D104-D105)</f>
         <v/>
       </c>
       <c r="E106" s="47" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="F106" s="47" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="G106" s="47" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="H106" s="47" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I106" s="47" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="J106" s="47" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="K106" s="47" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="L106" s="47" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="N106" s="160"/>
@@ -51864,48 +51922,48 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
-        <f t="shared" ref="A110:A115" si="41">IF(A5="","","    "&amp;A5)</f>
+        <f t="shared" ref="A110:A115" si="42">IF(A5="","","    "&amp;A5)</f>
         <v xml:space="preserve">    Upper Basin</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="48" t="str">
-        <f t="shared" ref="C110:L115" ca="1" si="42">IF(OR(C$28="",$A110=""),"",OFFSET(C$61,8*(ROW(B110)-ROW(B$110)),0))</f>
+        <f t="shared" ref="C110:L115" ca="1" si="43">IF(OR(C$28="",$A110=""),"",OFFSET(C$61,8*(ROW(B110)-ROW(B$110)),0))</f>
         <v/>
       </c>
       <c r="D110" s="48" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="E110" s="48" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="F110" s="48" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="G110" s="48" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="H110" s="48" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="I110" s="48" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="J110" s="48" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="K110" s="48" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="L110" s="150" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="M110" s="151">
@@ -51916,260 +51974,260 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">    Lower Basin</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="48" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="D111" s="48" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="E111" s="48" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="F111" s="48" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="G111" s="48" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="H111" s="48" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="I111" s="48" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="J111" s="48" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="K111" s="48" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="L111" s="150" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="M111" s="151">
-        <f t="shared" ref="M111:M115" ca="1" si="43">IF(OR($A111=""),"",SUM(C111:L111))</f>
+        <f t="shared" ref="M111:M115" ca="1" si="44">IF(OR($A111=""),"",SUM(C111:L111))</f>
         <v>0</v>
       </c>
       <c r="N111" s="164"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">    Mexico</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="48" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="D112" s="48" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="E112" s="48" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="F112" s="48" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="G112" s="48" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="H112" s="48" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="I112" s="48" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="J112" s="48" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="K112" s="48" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="L112" s="150" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="M112" s="151">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="44"/>
         <v>0</v>
       </c>
       <c r="N112" s="164"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">    Colorado River Delta</v>
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="48" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="D113" s="48" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="E113" s="48" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="F113" s="48" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="G113" s="48" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="H113" s="48" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="I113" s="48" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="J113" s="48" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="K113" s="48" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="L113" s="150" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="M113" s="151">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="44"/>
         <v>0</v>
       </c>
       <c r="N113" s="164"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">    First Nations</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="48" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="D114" s="48" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="E114" s="48" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="F114" s="48" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="G114" s="48" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="H114" s="48" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="I114" s="48" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="J114" s="48" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="K114" s="48" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="L114" s="150" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="M114" s="151">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="44"/>
         <v>0</v>
       </c>
       <c r="N114" s="164"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">    Shared, Reserve</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="48" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="D115" s="48" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="E115" s="48" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="F115" s="48" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="G115" s="48" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="H115" s="48" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="I115" s="48" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="J115" s="48" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="K115" s="48" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="L115" s="150" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="M115" s="151">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="44"/>
         <v>0</v>
       </c>
       <c r="N115" s="164"/>
@@ -52184,39 +52242,39 @@
         <v/>
       </c>
       <c r="D116" s="35" t="str">
-        <f t="shared" ref="D116:L116" si="44">IF(D$28&lt;&gt;"",SUM(D110:D115),"")</f>
+        <f t="shared" ref="D116:L116" si="45">IF(D$28&lt;&gt;"",SUM(D110:D115),"")</f>
         <v/>
       </c>
       <c r="E116" s="92" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="F116" s="35" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="G116" s="35" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="H116" s="35" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I116" s="35" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="J116" s="35" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="K116" s="35" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="L116" s="35" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="M116" s="22"/>
@@ -52245,43 +52303,43 @@
         <v xml:space="preserve">    Upper Basin - Consumptive Use and Headwaters Losses</v>
       </c>
       <c r="C118" s="48" t="str">
-        <f t="shared" ref="C118:L123" ca="1" si="45">IF(OR(C$28="",$A118=""),"",OFFSET(C$65,8*(ROW(B118)-ROW(B$118)),0))</f>
+        <f t="shared" ref="C118:L123" ca="1" si="46">IF(OR(C$28="",$A118=""),"",OFFSET(C$65,8*(ROW(B118)-ROW(B$118)),0))</f>
         <v/>
       </c>
       <c r="D118" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="E118" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="F118" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="G118" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="H118" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="I118" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="J118" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="K118" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="L118" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="N118" s="160"/>
@@ -52292,43 +52350,43 @@
         <v xml:space="preserve">    Lower Basin - Release from Mead</v>
       </c>
       <c r="C119" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="D119" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="E119" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="F119" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="G119" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="H119" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="I119" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="J119" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="K119" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="L119" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="N119" s="160"/>
@@ -52339,43 +52397,43 @@
         <v xml:space="preserve">    Mexico - Release from Mead</v>
       </c>
       <c r="C120" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="D120" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="E120" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="F120" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="G120" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="H120" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="I120" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="J120" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="K120" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="L120" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="N120" s="160"/>
@@ -52386,43 +52444,43 @@
         <v xml:space="preserve">    Colorado River Delta - Release from Mead</v>
       </c>
       <c r="C121" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="D121" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="E121" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="F121" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="G121" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="H121" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="I121" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="J121" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="K121" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="L121" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="N121" s="160"/>
@@ -52433,43 +52491,43 @@
         <v xml:space="preserve">    First Nations - Release from Mead</v>
       </c>
       <c r="C122" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="D122" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="E122" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="F122" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="G122" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="H122" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="I122" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="J122" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="K122" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="L122" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="N122" s="160"/>
@@ -52480,43 +52538,43 @@
         <v xml:space="preserve">    Shared, Reserve - Release from Mead</v>
       </c>
       <c r="C123" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="D123" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="E123" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="F123" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="G123" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="H123" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="I123" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="J123" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="K123" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="L123" s="48" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="N123" s="160"/>
@@ -52539,282 +52597,282 @@
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
-        <f t="shared" ref="A125:A130" si="46">IF(A5="","","    "&amp;A5)</f>
+        <f t="shared" ref="A125:A130" si="47">IF(A5="","","    "&amp;A5)</f>
         <v xml:space="preserve">    Upper Basin</v>
       </c>
       <c r="C125" s="48" t="str">
-        <f t="shared" ref="C125:L130" ca="1" si="47">IF(OR(C$28="",$A125=""),"",OFFSET(C$66,8*(ROW(B125)-ROW(B$125)),0))</f>
+        <f t="shared" ref="C125:L130" ca="1" si="48">IF(OR(C$28="",$A125=""),"",OFFSET(C$66,8*(ROW(B125)-ROW(B$125)),0))</f>
         <v/>
       </c>
       <c r="D125" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="E125" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="F125" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="G125" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="H125" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="I125" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="J125" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="K125" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="L125" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="N125" s="160"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v xml:space="preserve">    Lower Basin</v>
       </c>
       <c r="C126" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="D126" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="E126" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="F126" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="G126" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="H126" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="I126" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="J126" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="K126" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="L126" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="N126" s="160"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v xml:space="preserve">    Mexico</v>
       </c>
       <c r="C127" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="D127" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="E127" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="F127" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="G127" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="H127" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="I127" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="J127" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="K127" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="L127" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="N127" s="160"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v xml:space="preserve">    Colorado River Delta</v>
       </c>
       <c r="C128" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="D128" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="E128" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="F128" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="G128" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="H128" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="I128" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="J128" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="K128" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="L128" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="N128" s="160"/>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v xml:space="preserve">    First Nations</v>
       </c>
       <c r="C129" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="D129" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="E129" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="F129" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="G129" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="H129" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="I129" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="J129" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="K129" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="L129" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="N129" s="160"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v xml:space="preserve">    Shared, Reserve</v>
       </c>
       <c r="C130" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="D130" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="E130" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="F130" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="G130" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="H130" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="I130" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="J130" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="K130" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="L130" s="48" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="N130" s="160"/>
@@ -52829,39 +52887,39 @@
         <v/>
       </c>
       <c r="D131" s="13" t="str">
-        <f t="shared" ref="D131:L131" si="48">IF(D$28&lt;&gt;"",SUM(D125:D130),"")</f>
+        <f t="shared" ref="D131:L131" si="49">IF(D$28&lt;&gt;"",SUM(D125:D130),"")</f>
         <v/>
       </c>
       <c r="E131" s="13" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="F131" s="13" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="G131" s="13" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="H131" s="13" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="I131" s="13" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="J131" s="13" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="K131" s="13" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="L131" s="13" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="N131" s="159" t="s">
@@ -52903,39 +52961,39 @@
         <v/>
       </c>
       <c r="D133" s="13" t="str">
-        <f t="shared" ref="D133:L133" si="49">IF(D28="","",D$132*D$131)</f>
+        <f t="shared" ref="D133:L133" si="50">IF(D28="","",D$132*D$131)</f>
         <v/>
       </c>
       <c r="E133" s="13" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="F133" s="13" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="G133" s="13" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="H133" s="13" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="I133" s="13" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="J133" s="13" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="K133" s="13" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="L133" s="13" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="N133" s="159" t="s">
@@ -52952,39 +53010,39 @@
         <v/>
       </c>
       <c r="D134" s="13" t="str">
-        <f t="shared" ref="D134:L134" si="50">IF(D29="","",(1-D$132)*D$131)</f>
+        <f t="shared" ref="D134:L134" si="51">IF(D29="","",(1-D$132)*D$131)</f>
         <v/>
       </c>
       <c r="E134" s="13" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="F134" s="13" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="G134" s="13" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="H134" s="13" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="I134" s="13" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="J134" s="13" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="K134" s="13" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="L134" s="13" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="N134" s="159" t="s">
@@ -53303,17 +53361,8 @@
         <v>308</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D144" s="15"/>
-    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="A132:B132"/>
     <mergeCell ref="C8:G8"/>
@@ -53322,6 +53371,12 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
   </mergeCells>
   <conditionalFormatting sqref="H73">
     <cfRule type="cellIs" dxfId="48" priority="63" operator="greaterThan">
@@ -53376,31 +53431,6 @@
   <conditionalFormatting sqref="C89:L89">
     <cfRule type="cellIs" dxfId="38" priority="53" operator="greaterThan">
       <formula>$C$88</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C97">
-    <cfRule type="cellIs" dxfId="37" priority="52" operator="greaterThan">
-      <formula>$C$96</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="36" priority="51" operator="greaterThan">
-      <formula>$D$96</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="35" priority="50" operator="greaterThan">
-      <formula>$E$96</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F97">
-    <cfRule type="cellIs" dxfId="34" priority="49" operator="greaterThan">
-      <formula>$F$96</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G97">
-    <cfRule type="cellIs" dxfId="33" priority="48" operator="greaterThan">
-      <formula>$G$96</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H97">
@@ -53747,7 +53777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF413BB-D622-46C1-9841-0489E9AA7BE8}">
   <dimension ref="G1:X1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="X34" sqref="X34"/>
     </sheetView>
   </sheetViews>

--- a/ModelMusings/PilotFlexAccounting-CombinedPowellMead.xlsx
+++ b/ModelMusings/PilotFlexAccounting-CombinedPowellMead.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rosenberg\Work\USU\Research\ColoradoRiver\RCode\ColoradoRiverCoding2\ModelMusings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75352CC-8336-436C-AEFA-F708F9AAA9E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99578365-DC54-4646-BCBC-EB4D2580E8DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6645" xr2:uid="{5373AB19-D84C-490D-97DC-C516D358024A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6645" activeTab="2" xr2:uid="{5373AB19-D84C-490D-97DC-C516D358024A}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe-Directions" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="379">
   <si>
     <t>Year 1</t>
   </si>
@@ -622,53 +622,6 @@
     <t>Help all</t>
   </si>
   <si>
-    <t>Web links</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The Interim Guidelines:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> https://www.usbr.gov/lc/region/programs/strategies/RecordofDecision.pdf. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Drought Contingency Plans:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> https://www.usbr.gov/dcp/finaldocs.html</t>
-    </r>
-  </si>
-  <si>
     <t>Make Havasu/Parker physical data, remove from accounts. Recalculate Lower Basin share of inflow to better reflect Article III(d) of 1922 compact</t>
   </si>
   <si>
@@ -888,71 +841,6 @@
     <t>A party's strategy including decisions such as conservation, consumption, sales, purchaces from a party's flex account.</t>
   </si>
   <si>
-    <t>https://github.com/dzeke/ColoradoRiverCoding/blob/main/ModelMusings/Support/ModelGuide/ModelGuide-CombinedLakePowellLakeMead.md#get-started</t>
-  </si>
-  <si>
-    <t>DESCRIPTION</t>
-  </si>
-  <si>
-    <t>GET STARTED</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2. Follow the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Get Started</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> instructions in the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Synchronous Model Guide</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>3. At any time, consult the Help link in Column N of the Master worksheet.</t>
-  </si>
-  <si>
-    <t>Synchronous Model Guide (Help)</t>
-  </si>
-  <si>
-    <t>https://github.com/dzeke/ColoradoRiverCoding/blob/main/ModelMusings/Support/ModelGuide/ModelGuide-CombinedLakePowellLakeMead.md</t>
-  </si>
-  <si>
     <t>WORKSHEET DESCRIPTIONS</t>
   </si>
   <si>
@@ -1154,63 +1042,6 @@
     <t>Help pre-1922 water rights</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">The purpose of this numerical model is to promote thought and discussion about renegotiations of the 2007 Colorado River Interim Guidelines </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">and the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2019 Lower and Upper Basin Drought Contingency Plans.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The operations expire in 2026</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. More specifically: how to convert the Colorado River basin in drought -- a shrinking pie (lose-lose) environmental conflict -- to be more positive for people and endangered fish of the Grand Canyon?</t>
-    </r>
-  </si>
-  <si>
     <t>Lake Powell system</t>
   </si>
   <si>
@@ -1232,50 +1063,13 @@
     <t>4.2.2</t>
   </si>
   <si>
-    <t>https://github.com/dzeke/ColoradoRiverCoding/tree/main/ModelMusings</t>
-  </si>
-  <si>
-    <t>4. Open the Master worksheet and follow directions in Column A.</t>
-  </si>
-  <si>
     <t>https://github.com/dzeke/ColoradoRiverFutures/tree/master/ModelMusings</t>
   </si>
   <si>
     <t>David E. Rosenberg (2021). "Pilot flex accounting for a combined Lake Powell-Lake Mead system." Utah State University, Logan, UT. https://github.com/dzeke/ColoradoRiverFutures/tree/master/ModelMusings. https://github.com/dzeke/ColoradoRiverFutures/tree/master/ModelMusings.</t>
   </si>
   <si>
-    <t>Model Overview and Repository:</t>
-  </si>
-  <si>
     <t>Model Repository</t>
-  </si>
-  <si>
-    <t>1. Move this Excel workbook into your Google Drive. Invite participants to colaborate.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Visualize Key Ideas: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://github.com/dzeke/ColoradoRiverCoding/raw/main/ModelMusings/PilotFlexAccounting-KeyIdeas.pdf</t>
-    </r>
   </si>
   <si>
     <t>Hard code Havasu/Parker ET value in calculation of Lower Basin inflow share so that a number shows when there is no Lake Powell natural inflow. Make ReadMe worksheet more concise.</t>
@@ -1297,9 +1091,6 @@
   </si>
   <si>
     <t>University</t>
-  </si>
-  <si>
-    <t>Flex accounting for a combined Lake Powell-Lake Mead system</t>
   </si>
   <si>
     <t>Law</t>
@@ -1343,12 +1134,443 @@
   <si>
     <t>On Law of River withdraws, withdraw 0.001 maf less than available water to keep constraints satisfied.</t>
   </si>
+  <si>
+    <t>OVERVIEW</t>
+  </si>
+  <si>
+    <t>Flex Accounting in a Combined Lake Powell-Lake Mead System: Tool and Discussion Activity</t>
+  </si>
+  <si>
+    <t>This tool gives users the opportunity to experiment with flex accounts in a combined Lake Powell-Lake Mead system. The purpose of the activity to is provoke thought and discussion about new operations for Lake Powell and Lake Mead.</t>
+  </si>
+  <si>
+    <t>REQUIREMENTS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Number of People:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2 or more (facilitator may also participate).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Time:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1 to 3 hours.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Software:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Facilitator has a Google Account.</t>
+    </r>
+  </si>
+  <si>
+    <t>FACILITATION DIRECTIONS</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Open the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Versions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Worksheet to see updates.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Duplicate the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Master</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Worksheet to save a blank version for later use.</t>
+    </r>
+  </si>
+  <si>
+    <t>Invite 1 or more other people to join the Google Sheet.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a. In the upper right of the Google Sheet, click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Share</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button.</t>
+    </r>
+  </si>
+  <si>
+    <t>b. Add emails, and set permissions so players can access the Google Sheet. Or copy and share the sheet's URL.</t>
+  </si>
+  <si>
+    <t>Move this Excel file to your Google Drive. Open as a Google Sheet.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">On the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Master</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Worksheet, scroll down Column A. Participants enter values in rows with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Blue text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a. For example, in Rows 4-10, particants select a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Party</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and enter a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Strategy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. If fewer than 6 participants, participants select multiple parties.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">b. Enter the Lake Powell natural flow for Year 1 in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cell C28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Cells below will populate.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">c. Participants continue to enter values in Year 1 (Column C) down to Row 142 in row blocks with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Blue text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">d. Move to Year 2 (Column D). Enter Lake Powell natural flow in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cell D28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Find linked help for each row in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Column N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">View the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Master-Plots</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> worksheet to compare entries to current operations (Law of River). Law  of River operations are calculated on the Master-LawOfRiver Worksheet.</t>
+    </r>
+  </si>
+  <si>
+    <t>VISUALS of KEY IDEAS</t>
+  </si>
+  <si>
+    <t>MODEL GUIDE (Help)</t>
+  </si>
+  <si>
+    <t>Download this Excel file (done :)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Participants enter values in rows with bold </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>blue instructions</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="9">
+  <numFmts count="10">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
@@ -1358,8 +1580,9 @@
     <numFmt numFmtId="168" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="169" formatCode="0.000"/>
     <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="171" formatCode="0."/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1480,8 +1703,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1596,6 +1827,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1842,7 +2079,7 @@
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="266">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2227,9 +2464,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2317,9 +2551,6 @@
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="9" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2332,53 +2563,11 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="17" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="13" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2395,11 +2584,17 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2497,8 +2692,117 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="13" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="17" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -26564,16 +26868,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{447CC9A2-4C52-453A-A3CD-EA6E59E26162}">
-  <dimension ref="A1:R43"/>
+  <dimension ref="A1:R58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="35.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="3" width="7.85546875" customWidth="1"/>
     <col min="4" max="4" width="7" style="2" customWidth="1"/>
     <col min="5" max="5" width="7.5703125" customWidth="1"/>
@@ -26586,20 +26890,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="192" t="s">
+      <c r="A1" s="193" t="s">
         <v>355</v>
       </c>
-      <c r="B1" s="192"/>
-      <c r="C1" s="192"/>
-      <c r="D1" s="192"/>
-      <c r="E1" s="192"/>
-      <c r="F1" s="192"/>
-      <c r="G1" s="192"/>
-      <c r="H1" s="192"/>
-      <c r="I1" s="192"/>
-      <c r="J1" s="192"/>
-      <c r="K1" s="192"/>
-      <c r="L1" s="192"/>
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
+      <c r="D1" s="193"/>
+      <c r="E1" s="193"/>
+      <c r="F1" s="193"/>
+      <c r="G1" s="193"/>
+      <c r="H1" s="193"/>
+      <c r="I1" s="193"/>
+      <c r="J1" s="193"/>
+      <c r="K1" s="193"/>
+      <c r="L1" s="193"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -26608,400 +26912,755 @@
       <c r="D2"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="173" t="s">
-        <v>263</v>
-      </c>
-      <c r="B3" s="174"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="176"/>
-      <c r="I3" s="176"/>
-      <c r="J3" s="176"/>
-      <c r="K3" s="176"/>
-      <c r="L3" s="177"/>
-      <c r="N3" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" s="59" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="186" t="s">
+      <c r="A3" s="172" t="s">
+        <v>354</v>
+      </c>
+      <c r="B3" s="173"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="175"/>
+      <c r="J3" s="175"/>
+      <c r="K3" s="175"/>
+      <c r="L3" s="176"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" s="59" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="226" t="s">
+        <v>356</v>
+      </c>
+      <c r="B4" s="191"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="191"/>
+      <c r="E4" s="191"/>
+      <c r="F4" s="191"/>
+      <c r="G4" s="191"/>
+      <c r="H4" s="191"/>
+      <c r="I4" s="191"/>
+      <c r="J4" s="191"/>
+      <c r="K4" s="191"/>
+      <c r="L4" s="192"/>
+      <c r="N4" s="190"/>
+      <c r="O4" s="190"/>
+      <c r="P4" s="190"/>
+      <c r="Q4" s="190"/>
+      <c r="R4" s="190"/>
+    </row>
+    <row r="5" spans="1:18" s="94" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="125"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125"/>
+      <c r="K5" s="125"/>
+      <c r="L5" s="125"/>
+    </row>
+    <row r="6" spans="1:18" s="94" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="227" t="s">
+        <v>357</v>
+      </c>
+      <c r="B6" s="228"/>
+      <c r="C6" s="228"/>
+      <c r="D6" s="228"/>
+      <c r="E6" s="228"/>
+      <c r="F6" s="228"/>
+      <c r="G6" s="228"/>
+      <c r="H6" s="228"/>
+      <c r="I6" s="228"/>
+      <c r="J6" s="228"/>
+      <c r="K6" s="228"/>
+      <c r="L6" s="229"/>
+    </row>
+    <row r="7" spans="1:18" s="94" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="230" t="s">
+        <v>358</v>
+      </c>
+      <c r="B7" s="231"/>
+      <c r="C7" s="231"/>
+      <c r="D7" s="231"/>
+      <c r="E7" s="231"/>
+      <c r="F7" s="231"/>
+      <c r="G7" s="231"/>
+      <c r="H7" s="231"/>
+      <c r="I7" s="231"/>
+      <c r="J7" s="231"/>
+      <c r="K7" s="231"/>
+      <c r="L7" s="232"/>
+    </row>
+    <row r="8" spans="1:18" s="94" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="230" t="s">
+        <v>359</v>
+      </c>
+      <c r="B8" s="231"/>
+      <c r="C8" s="231"/>
+      <c r="D8" s="231"/>
+      <c r="E8" s="231"/>
+      <c r="F8" s="231"/>
+      <c r="G8" s="231"/>
+      <c r="H8" s="231"/>
+      <c r="I8" s="231"/>
+      <c r="J8" s="231"/>
+      <c r="K8" s="231"/>
+      <c r="L8" s="232"/>
+    </row>
+    <row r="9" spans="1:18" s="94" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="233" t="s">
+        <v>360</v>
+      </c>
+      <c r="B9" s="234"/>
+      <c r="C9" s="234"/>
+      <c r="D9" s="234"/>
+      <c r="E9" s="234"/>
+      <c r="F9" s="234"/>
+      <c r="G9" s="234"/>
+      <c r="H9" s="234"/>
+      <c r="I9" s="234"/>
+      <c r="J9" s="234"/>
+      <c r="K9" s="234"/>
+      <c r="L9" s="235"/>
+    </row>
+    <row r="10" spans="1:18" s="94" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="125"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="125"/>
+      <c r="L10" s="125"/>
+    </row>
+    <row r="11" spans="1:18" s="94" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="187" t="s">
+        <v>361</v>
+      </c>
+      <c r="B11" s="188"/>
+      <c r="C11" s="188"/>
+      <c r="D11" s="188"/>
+      <c r="E11" s="188"/>
+      <c r="F11" s="188"/>
+      <c r="G11" s="188"/>
+      <c r="H11" s="188"/>
+      <c r="I11" s="188"/>
+      <c r="J11" s="188"/>
+      <c r="K11" s="188"/>
+      <c r="L11" s="189"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" s="94" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="238">
+        <v>1</v>
+      </c>
+      <c r="B12" s="185" t="s">
+        <v>377</v>
+      </c>
+      <c r="C12" s="185"/>
+      <c r="D12" s="185"/>
+      <c r="E12" s="185"/>
+      <c r="F12" s="185"/>
+      <c r="G12" s="185"/>
+      <c r="H12" s="185"/>
+      <c r="I12" s="185"/>
+      <c r="J12" s="185"/>
+      <c r="K12" s="185"/>
+      <c r="L12" s="186"/>
+    </row>
+    <row r="13" spans="1:18" s="94" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="238">
+        <v>2</v>
+      </c>
+      <c r="B13" s="185" t="s">
+        <v>367</v>
+      </c>
+      <c r="C13" s="185"/>
+      <c r="D13" s="185"/>
+      <c r="E13" s="185"/>
+      <c r="F13" s="185"/>
+      <c r="G13" s="185"/>
+      <c r="H13" s="185"/>
+      <c r="I13" s="185"/>
+      <c r="J13" s="185"/>
+      <c r="K13" s="185"/>
+      <c r="L13" s="186"/>
+      <c r="N13" s="117"/>
+    </row>
+    <row r="14" spans="1:18" s="94" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="238">
+        <v>3</v>
+      </c>
+      <c r="B14" s="185" t="s">
+        <v>362</v>
+      </c>
+      <c r="C14" s="185"/>
+      <c r="D14" s="185"/>
+      <c r="E14" s="185"/>
+      <c r="F14" s="185"/>
+      <c r="G14" s="185"/>
+      <c r="H14" s="185"/>
+      <c r="I14" s="185"/>
+      <c r="J14" s="185"/>
+      <c r="K14" s="185"/>
+      <c r="L14" s="186"/>
+      <c r="N14" s="117"/>
+    </row>
+    <row r="15" spans="1:18" s="94" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="238">
+        <v>4</v>
+      </c>
+      <c r="B15" s="185" t="s">
+        <v>363</v>
+      </c>
+      <c r="C15" s="185"/>
+      <c r="D15" s="185"/>
+      <c r="E15" s="185"/>
+      <c r="F15" s="185"/>
+      <c r="G15" s="185"/>
+      <c r="H15" s="185"/>
+      <c r="I15" s="185"/>
+      <c r="J15" s="185"/>
+      <c r="K15" s="185"/>
+      <c r="L15" s="186"/>
+      <c r="N15" s="117"/>
+    </row>
+    <row r="16" spans="1:18" s="94" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="238">
+        <v>5</v>
+      </c>
+      <c r="B16" s="185" t="s">
+        <v>364</v>
+      </c>
+      <c r="C16" s="185"/>
+      <c r="D16" s="185"/>
+      <c r="E16" s="185"/>
+      <c r="F16" s="185"/>
+      <c r="G16" s="185"/>
+      <c r="H16" s="185"/>
+      <c r="I16" s="185"/>
+      <c r="J16" s="185"/>
+      <c r="K16" s="185"/>
+      <c r="L16" s="186"/>
+      <c r="N16" s="117"/>
+    </row>
+    <row r="17" spans="1:14" s="94" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="238"/>
+      <c r="B17" s="185" t="s">
+        <v>365</v>
+      </c>
+      <c r="C17" s="185"/>
+      <c r="D17" s="185"/>
+      <c r="E17" s="185"/>
+      <c r="F17" s="185"/>
+      <c r="G17" s="185"/>
+      <c r="H17" s="185"/>
+      <c r="I17" s="185"/>
+      <c r="J17" s="185"/>
+      <c r="K17" s="185"/>
+      <c r="L17" s="186"/>
+      <c r="N17" s="117"/>
+    </row>
+    <row r="18" spans="1:14" s="94" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="238"/>
+      <c r="B18" s="185" t="s">
+        <v>366</v>
+      </c>
+      <c r="C18" s="185"/>
+      <c r="D18" s="185"/>
+      <c r="E18" s="185"/>
+      <c r="F18" s="185"/>
+      <c r="G18" s="185"/>
+      <c r="H18" s="185"/>
+      <c r="I18" s="185"/>
+      <c r="J18" s="185"/>
+      <c r="K18" s="185"/>
+      <c r="L18" s="186"/>
+      <c r="N18" s="117"/>
+    </row>
+    <row r="19" spans="1:14" s="94" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="238">
+        <v>6</v>
+      </c>
+      <c r="B19" s="185" t="s">
+        <v>368</v>
+      </c>
+      <c r="C19" s="185"/>
+      <c r="D19" s="185"/>
+      <c r="E19" s="185"/>
+      <c r="F19" s="185"/>
+      <c r="G19" s="185"/>
+      <c r="H19" s="185"/>
+      <c r="I19" s="185"/>
+      <c r="J19" s="185"/>
+      <c r="K19" s="185"/>
+      <c r="L19" s="186"/>
+      <c r="N19" s="117"/>
+    </row>
+    <row r="20" spans="1:14" s="94" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="238"/>
+      <c r="B20" s="236" t="s">
+        <v>369</v>
+      </c>
+      <c r="C20" s="236"/>
+      <c r="D20" s="236"/>
+      <c r="E20" s="236"/>
+      <c r="F20" s="236"/>
+      <c r="G20" s="236"/>
+      <c r="H20" s="236"/>
+      <c r="I20" s="236"/>
+      <c r="J20" s="236"/>
+      <c r="K20" s="236"/>
+      <c r="L20" s="237"/>
+      <c r="N20" s="117"/>
+    </row>
+    <row r="21" spans="1:14" s="94" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="238"/>
+      <c r="B21" s="236" t="s">
+        <v>370</v>
+      </c>
+      <c r="C21" s="236"/>
+      <c r="D21" s="236"/>
+      <c r="E21" s="236"/>
+      <c r="F21" s="236"/>
+      <c r="G21" s="236"/>
+      <c r="H21" s="236"/>
+      <c r="I21" s="236"/>
+      <c r="J21" s="236"/>
+      <c r="K21" s="236"/>
+      <c r="L21" s="237"/>
+      <c r="N21" s="117"/>
+    </row>
+    <row r="22" spans="1:14" s="94" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="238"/>
+      <c r="B22" s="236" t="s">
+        <v>371</v>
+      </c>
+      <c r="C22" s="236"/>
+      <c r="D22" s="236"/>
+      <c r="E22" s="236"/>
+      <c r="F22" s="236"/>
+      <c r="G22" s="236"/>
+      <c r="H22" s="236"/>
+      <c r="I22" s="236"/>
+      <c r="J22" s="236"/>
+      <c r="K22" s="236"/>
+      <c r="L22" s="237"/>
+      <c r="N22" s="117"/>
+    </row>
+    <row r="23" spans="1:14" s="94" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="238"/>
+      <c r="B23" s="185" t="s">
+        <v>372</v>
+      </c>
+      <c r="C23" s="185"/>
+      <c r="D23" s="185"/>
+      <c r="E23" s="185"/>
+      <c r="F23" s="185"/>
+      <c r="G23" s="185"/>
+      <c r="H23" s="185"/>
+      <c r="I23" s="185"/>
+      <c r="J23" s="185"/>
+      <c r="K23" s="185"/>
+      <c r="L23" s="186"/>
+    </row>
+    <row r="24" spans="1:14" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="239">
+        <v>7</v>
+      </c>
+      <c r="B24" s="185" t="s">
+        <v>373</v>
+      </c>
+      <c r="C24" s="185"/>
+      <c r="D24" s="185"/>
+      <c r="E24" s="185"/>
+      <c r="F24" s="185"/>
+      <c r="G24" s="185"/>
+      <c r="H24" s="185"/>
+      <c r="I24" s="185"/>
+      <c r="J24" s="185"/>
+      <c r="K24" s="185"/>
+      <c r="L24" s="186"/>
+    </row>
+    <row r="25" spans="1:14" s="94" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="240">
+        <v>8</v>
+      </c>
+      <c r="B25" s="241" t="s">
+        <v>374</v>
+      </c>
+      <c r="C25" s="241"/>
+      <c r="D25" s="241"/>
+      <c r="E25" s="241"/>
+      <c r="F25" s="241"/>
+      <c r="G25" s="241"/>
+      <c r="H25" s="241"/>
+      <c r="I25" s="241"/>
+      <c r="J25" s="241"/>
+      <c r="K25" s="241"/>
+      <c r="L25" s="242"/>
+    </row>
+    <row r="26" spans="1:14" s="245" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="243"/>
+      <c r="B26" s="244"/>
+      <c r="C26" s="244"/>
+      <c r="D26" s="244"/>
+      <c r="E26" s="244"/>
+      <c r="F26" s="244"/>
+      <c r="G26" s="244"/>
+      <c r="H26" s="244"/>
+      <c r="I26" s="244"/>
+      <c r="J26" s="244"/>
+      <c r="K26" s="244"/>
+      <c r="L26" s="244"/>
+    </row>
+    <row r="27" spans="1:14" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="246" t="s">
+        <v>375</v>
+      </c>
+      <c r="B27" s="247"/>
+      <c r="C27" s="247"/>
+      <c r="D27" s="247"/>
+      <c r="E27" s="247"/>
+      <c r="F27" s="247"/>
+      <c r="G27" s="247"/>
+      <c r="H27" s="247"/>
+      <c r="I27" s="247"/>
+      <c r="J27" s="247"/>
+      <c r="K27" s="247"/>
+      <c r="L27" s="248"/>
+    </row>
+    <row r="28" spans="1:14" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="249" t="s">
+        <v>376</v>
+      </c>
+      <c r="B28" s="250"/>
+      <c r="C28" s="250"/>
+      <c r="D28" s="250"/>
+      <c r="E28" s="250"/>
+      <c r="F28" s="250"/>
+      <c r="G28" s="250"/>
+      <c r="H28" s="250"/>
+      <c r="I28" s="250"/>
+      <c r="J28" s="250"/>
+      <c r="K28" s="250"/>
+      <c r="L28" s="251"/>
+    </row>
+    <row r="29" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="180"/>
+      <c r="C29" s="180"/>
+      <c r="D29" s="180"/>
+      <c r="E29" s="180"/>
+      <c r="F29" s="180"/>
+      <c r="G29" s="180"/>
+      <c r="H29" s="180"/>
+      <c r="I29" s="180"/>
+      <c r="J29" s="180"/>
+      <c r="K29" s="180"/>
+      <c r="L29" s="180"/>
+    </row>
+    <row r="30" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="252" t="s">
+        <v>260</v>
+      </c>
+      <c r="B30" s="253"/>
+      <c r="C30" s="253"/>
+      <c r="D30" s="254"/>
+      <c r="E30" s="253"/>
+      <c r="F30" s="253"/>
+      <c r="G30" s="253"/>
+      <c r="H30" s="253"/>
+      <c r="I30" s="253"/>
+      <c r="J30" s="253"/>
+      <c r="K30" s="253"/>
+      <c r="L30" s="255"/>
+    </row>
+    <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="256"/>
+      <c r="B31" s="257" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="258" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="258"/>
+      <c r="E31" s="258"/>
+      <c r="F31" s="258"/>
+      <c r="G31" s="258"/>
+      <c r="H31" s="258"/>
+      <c r="I31" s="258"/>
+      <c r="J31" s="258"/>
+      <c r="K31" s="258"/>
+      <c r="L31" s="259"/>
+    </row>
+    <row r="32" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="256"/>
+      <c r="B32" s="257" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="258" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" s="258"/>
+      <c r="E32" s="258"/>
+      <c r="F32" s="258"/>
+      <c r="G32" s="258"/>
+      <c r="H32" s="258"/>
+      <c r="I32" s="258"/>
+      <c r="J32" s="258"/>
+      <c r="K32" s="258"/>
+      <c r="L32" s="259"/>
+    </row>
+    <row r="33" spans="1:12" s="64" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="256"/>
+      <c r="B33" s="257" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="260" t="s">
+        <v>210</v>
+      </c>
+      <c r="D33" s="260"/>
+      <c r="E33" s="260"/>
+      <c r="F33" s="260"/>
+      <c r="G33" s="260"/>
+      <c r="H33" s="260"/>
+      <c r="I33" s="260"/>
+      <c r="J33" s="260"/>
+      <c r="K33" s="260"/>
+      <c r="L33" s="261"/>
+    </row>
+    <row r="34" spans="1:12" s="65" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="256"/>
+      <c r="B34" s="257" t="s">
+        <v>208</v>
+      </c>
+      <c r="C34" s="260" t="s">
+        <v>211</v>
+      </c>
+      <c r="D34" s="260"/>
+      <c r="E34" s="260"/>
+      <c r="F34" s="260"/>
+      <c r="G34" s="260"/>
+      <c r="H34" s="260"/>
+      <c r="I34" s="260"/>
+      <c r="J34" s="260"/>
+      <c r="K34" s="260"/>
+      <c r="L34" s="261"/>
+    </row>
+    <row r="35" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="256"/>
+      <c r="B35" s="257" t="s">
+        <v>209</v>
+      </c>
+      <c r="C35" s="260" t="s">
+        <v>212</v>
+      </c>
+      <c r="D35" s="260"/>
+      <c r="E35" s="260"/>
+      <c r="F35" s="260"/>
+      <c r="G35" s="260"/>
+      <c r="H35" s="260"/>
+      <c r="I35" s="260"/>
+      <c r="J35" s="260"/>
+      <c r="K35" s="260"/>
+      <c r="L35" s="261"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="256"/>
+      <c r="B36" s="257" t="s">
+        <v>348</v>
+      </c>
+      <c r="C36" s="258" t="s">
+        <v>154</v>
+      </c>
+      <c r="D36" s="258"/>
+      <c r="E36" s="258"/>
+      <c r="F36" s="258"/>
+      <c r="G36" s="258"/>
+      <c r="H36" s="258"/>
+      <c r="I36" s="258"/>
+      <c r="J36" s="258"/>
+      <c r="K36" s="258"/>
+      <c r="L36" s="259"/>
+    </row>
+    <row r="37" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="256"/>
+      <c r="B37" s="257" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="260" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="260"/>
+      <c r="E37" s="260"/>
+      <c r="F37" s="260"/>
+      <c r="G37" s="260"/>
+      <c r="H37" s="260"/>
+      <c r="I37" s="260"/>
+      <c r="J37" s="260"/>
+      <c r="K37" s="260"/>
+      <c r="L37" s="261"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="256"/>
+      <c r="B38" s="257" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="258" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="258"/>
+      <c r="E38" s="258"/>
+      <c r="F38" s="258"/>
+      <c r="G38" s="258"/>
+      <c r="H38" s="258"/>
+      <c r="I38" s="258"/>
+      <c r="J38" s="258"/>
+      <c r="K38" s="258"/>
+      <c r="L38" s="259"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="256"/>
+      <c r="B39" s="257" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="258" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="258"/>
+      <c r="E39" s="258"/>
+      <c r="F39" s="258"/>
+      <c r="G39" s="258"/>
+      <c r="H39" s="258"/>
+      <c r="I39" s="258"/>
+      <c r="J39" s="258"/>
+      <c r="K39" s="258"/>
+      <c r="L39" s="259"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="262"/>
+      <c r="B40" s="263" t="s">
+        <v>249</v>
+      </c>
+      <c r="C40" s="264" t="s">
+        <v>250</v>
+      </c>
+      <c r="D40" s="264"/>
+      <c r="E40" s="264"/>
+      <c r="F40" s="264"/>
+      <c r="G40" s="264"/>
+      <c r="H40" s="264"/>
+      <c r="I40" s="264"/>
+      <c r="J40" s="264"/>
+      <c r="K40" s="264"/>
+      <c r="L40" s="265"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="49" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="49" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="49"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B4" s="187"/>
-      <c r="C4" s="187"/>
-      <c r="D4" s="187"/>
-      <c r="E4" s="187"/>
-      <c r="F4" s="187"/>
-      <c r="G4" s="187"/>
-      <c r="H4" s="187"/>
-      <c r="I4" s="187"/>
-      <c r="J4" s="187"/>
-      <c r="K4" s="187"/>
-      <c r="L4" s="188"/>
-      <c r="N4" s="185" t="s">
-        <v>196</v>
-      </c>
-      <c r="O4" s="185"/>
-      <c r="P4" s="185"/>
-      <c r="Q4" s="185"/>
-      <c r="R4" s="185"/>
-    </row>
-    <row r="5" spans="1:18" s="94" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="186" t="s">
-        <v>344</v>
-      </c>
-      <c r="B5" s="187"/>
-      <c r="C5" s="187"/>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="187"/>
-      <c r="H5" s="187"/>
-      <c r="I5" s="187"/>
-      <c r="J5" s="187"/>
-      <c r="K5" s="187"/>
-      <c r="L5" s="188"/>
-    </row>
-    <row r="6" spans="1:18" s="94" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="189" t="s">
-        <v>340</v>
-      </c>
-      <c r="B6" s="190"/>
-      <c r="C6" s="190"/>
-      <c r="D6" s="190"/>
-      <c r="E6" s="190"/>
-      <c r="F6" s="190"/>
-      <c r="G6" s="190"/>
-      <c r="H6" s="190"/>
-      <c r="I6" s="190"/>
-      <c r="J6" s="190"/>
-      <c r="K6" s="190"/>
-      <c r="L6" s="191"/>
-      <c r="N6" s="180" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" s="94" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="125"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="125"/>
-      <c r="H7" s="125"/>
-      <c r="I7" s="125"/>
-      <c r="J7" s="125"/>
-      <c r="K7" s="125"/>
-      <c r="L7" s="125"/>
-    </row>
-    <row r="8" spans="1:18" s="94" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="203" t="s">
-        <v>264</v>
-      </c>
-      <c r="B8" s="204"/>
-      <c r="C8" s="204"/>
-      <c r="D8" s="204"/>
-      <c r="E8" s="204"/>
-      <c r="F8" s="204"/>
-      <c r="G8" s="204"/>
-      <c r="H8" s="204"/>
-      <c r="I8" s="204"/>
-      <c r="J8" s="204"/>
-      <c r="K8" s="204"/>
-      <c r="L8" s="205"/>
-      <c r="N8" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" s="94" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="200" t="s">
-        <v>346</v>
-      </c>
-      <c r="B9" s="201"/>
-      <c r="C9" s="201"/>
-      <c r="D9" s="201"/>
-      <c r="E9" s="201"/>
-      <c r="F9" s="201"/>
-      <c r="G9" s="201"/>
-      <c r="H9" s="201"/>
-      <c r="I9" s="201"/>
-      <c r="J9" s="201"/>
-      <c r="K9" s="201"/>
-      <c r="L9" s="202"/>
-      <c r="N9" s="117" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" s="94" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="206" t="s">
-        <v>265</v>
-      </c>
-      <c r="B10" s="201"/>
-      <c r="C10" s="201"/>
-      <c r="D10" s="201"/>
-      <c r="E10" s="201"/>
-      <c r="F10" s="201"/>
-      <c r="G10" s="201"/>
-      <c r="H10" s="201"/>
-      <c r="I10" s="201"/>
-      <c r="J10" s="201"/>
-      <c r="K10" s="201"/>
-      <c r="L10" s="202"/>
-    </row>
-    <row r="11" spans="1:18" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="207" t="s">
-        <v>262</v>
-      </c>
-      <c r="B11" s="201"/>
-      <c r="C11" s="201"/>
-      <c r="D11" s="201"/>
-      <c r="E11" s="201"/>
-      <c r="F11" s="201"/>
-      <c r="G11" s="201"/>
-      <c r="H11" s="201"/>
-      <c r="I11" s="201"/>
-      <c r="J11" s="201"/>
-      <c r="K11" s="201"/>
-      <c r="L11" s="202"/>
-    </row>
-    <row r="12" spans="1:18" s="65" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="194" t="s">
-        <v>266</v>
-      </c>
-      <c r="B12" s="195"/>
-      <c r="C12" s="195"/>
-      <c r="D12" s="195"/>
-      <c r="E12" s="195"/>
-      <c r="F12" s="195"/>
-      <c r="G12" s="195"/>
-      <c r="H12" s="195"/>
-      <c r="I12" s="195"/>
-      <c r="J12" s="195"/>
-      <c r="K12" s="195"/>
-      <c r="L12" s="196"/>
-    </row>
-    <row r="13" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="197" t="s">
-        <v>341</v>
-      </c>
-      <c r="B13" s="198"/>
-      <c r="C13" s="198"/>
-      <c r="D13" s="198"/>
-      <c r="E13" s="198"/>
-      <c r="F13" s="198"/>
-      <c r="G13" s="198"/>
-      <c r="H13" s="198"/>
-      <c r="I13" s="198"/>
-      <c r="J13" s="198"/>
-      <c r="K13" s="198"/>
-      <c r="L13" s="199"/>
-    </row>
-    <row r="14" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="146"/>
-      <c r="C14" s="146"/>
-      <c r="D14" s="146"/>
-      <c r="E14" s="146"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="146"/>
-      <c r="I14" s="146"/>
-      <c r="J14" s="146"/>
-      <c r="K14" s="146"/>
-      <c r="L14" s="146"/>
-    </row>
-    <row r="15" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="64" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18"/>
-      <c r="B18" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" t="s">
-        <v>212</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-    </row>
-    <row r="19" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19"/>
-      <c r="B19" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C19" t="s">
-        <v>213</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C20" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="C21" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C25" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="49" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="49" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="49"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="49" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="49" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="193" t="s">
-        <v>343</v>
-      </c>
-      <c r="B37" s="193"/>
-      <c r="C37" s="193"/>
-      <c r="D37" s="193"/>
-      <c r="E37" s="193"/>
-      <c r="F37" s="193"/>
-      <c r="G37" s="193"/>
-      <c r="H37" s="193"/>
-      <c r="I37" s="193"/>
-      <c r="J37" s="193"/>
-      <c r="K37" s="193"/>
-      <c r="L37" s="193"/>
-    </row>
-    <row r="42" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:12" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="184" t="s">
+        <v>331</v>
+      </c>
+      <c r="B52" s="184"/>
+      <c r="C52" s="184"/>
+      <c r="D52" s="184"/>
+      <c r="E52" s="184"/>
+      <c r="F52" s="184"/>
+      <c r="G52" s="184"/>
+      <c r="H52" s="184"/>
+      <c r="I52" s="184"/>
+      <c r="J52" s="184"/>
+      <c r="K52" s="184"/>
+      <c r="L52" s="184"/>
+    </row>
+    <row r="57" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A37:L37"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="A13:L13"/>
+  <mergeCells count="28">
+    <mergeCell ref="C33:L33"/>
+    <mergeCell ref="C34:L34"/>
+    <mergeCell ref="C35:L35"/>
+    <mergeCell ref="C37:L37"/>
+    <mergeCell ref="B19:L19"/>
+    <mergeCell ref="B20:L20"/>
+    <mergeCell ref="B21:L21"/>
+    <mergeCell ref="B22:L22"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A8:L8"/>
     <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="B12:L12"/>
     <mergeCell ref="N4:R4"/>
     <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A6:L6"/>
     <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A52:L52"/>
+    <mergeCell ref="A27:L27"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="B14:L14"/>
+    <mergeCell ref="B15:L15"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="B17:L17"/>
+    <mergeCell ref="B18:L18"/>
+    <mergeCell ref="B23:L23"/>
+    <mergeCell ref="B24:L24"/>
+    <mergeCell ref="B25:L25"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A30" r:id="rId1" xr:uid="{6B934EC2-E381-41EE-938C-08FAF5E51BBE}"/>
-    <hyperlink ref="A31" r:id="rId2" xr:uid="{785DB934-D308-4A7B-B51A-B3D1C1CB613D}"/>
-    <hyperlink ref="N6" r:id="rId3" display="https://github.com/dzeke/ColoradoRiverCoding/raw/main/ModelMusings/PilotFlexAccounting-KeyIdeas.pdf" xr:uid="{131A8731-68D5-4DE1-835C-AA3411740421}"/>
-    <hyperlink ref="A11" r:id="rId4" location="get-started" xr:uid="{0D919A5D-49B0-4CA3-90DD-F2E8DF050F78}"/>
-    <hyperlink ref="N9" r:id="rId5" xr:uid="{072649A5-E2A3-441E-B368-B60853092EBA}"/>
-    <hyperlink ref="A6" r:id="rId6" xr:uid="{F74014F9-5FE3-47D2-A171-A9ABB56F1943}"/>
-    <hyperlink ref="A34" r:id="rId7" xr:uid="{628F21D8-1E97-4CD2-A7F4-B694F56F2A98}"/>
+    <hyperlink ref="A45" r:id="rId1" xr:uid="{6B934EC2-E381-41EE-938C-08FAF5E51BBE}"/>
+    <hyperlink ref="A46" r:id="rId2" xr:uid="{785DB934-D308-4A7B-B51A-B3D1C1CB613D}"/>
+    <hyperlink ref="A49" r:id="rId3" xr:uid="{628F21D8-1E97-4CD2-A7F4-B694F56F2A98}"/>
+    <hyperlink ref="A27:L27" r:id="rId4" display="Visuals of Key Ideas" xr:uid="{859BFD9E-D08B-44CA-9DE3-FFEC8C0810A4}"/>
+    <hyperlink ref="A28" r:id="rId5" display="Model Guide (Help)" xr:uid="{8F30E346-4589-4A82-8FC7-799AFE6BC596}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -41958,86 +42617,86 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="65" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="235" t="s">
-        <v>248</v>
-      </c>
-      <c r="B3" s="235"/>
-      <c r="C3" s="235"/>
+      <c r="A3" s="221" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3" s="221"/>
+      <c r="C3" s="221"/>
       <c r="D3" s="142" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="236" t="s">
+      <c r="A4" s="222" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4" s="222"/>
+      <c r="C4" s="222"/>
+      <c r="D4" s="41" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="223" t="s">
+        <v>240</v>
+      </c>
+      <c r="B5" s="223"/>
+      <c r="C5" s="223"/>
+      <c r="D5" s="41" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="224" t="s">
         <v>241</v>
       </c>
-      <c r="B4" s="236"/>
-      <c r="C4" s="236"/>
-      <c r="D4" s="41" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="237" t="s">
+      <c r="B6" s="224"/>
+      <c r="C6" s="224"/>
+      <c r="D6" s="41" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="225" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="225"/>
+      <c r="C7" s="225"/>
+      <c r="D7" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="B5" s="237"/>
-      <c r="C5" s="237"/>
-      <c r="D5" s="41" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="238" t="s">
-        <v>243</v>
-      </c>
-      <c r="B6" s="238"/>
-      <c r="C6" s="238"/>
-      <c r="D6" s="41" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="239" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="222" t="s">
+        <v>239</v>
+      </c>
+      <c r="B11" s="222"/>
+      <c r="C11" s="222"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="223" t="s">
+        <v>240</v>
+      </c>
+      <c r="B12" s="223"/>
+      <c r="C12" s="223"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="224" t="s">
+        <v>241</v>
+      </c>
+      <c r="B13" s="224"/>
+      <c r="C13" s="224"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="225" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="239"/>
-      <c r="C7" s="239"/>
-      <c r="D7" s="41" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="236" t="s">
-        <v>241</v>
-      </c>
-      <c r="B11" s="236"/>
-      <c r="C11" s="236"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="237" t="s">
-        <v>242</v>
-      </c>
-      <c r="B12" s="237"/>
-      <c r="C12" s="237"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="238" t="s">
-        <v>243</v>
-      </c>
-      <c r="B13" s="238"/>
-      <c r="C13" s="238"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="239" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="239"/>
-      <c r="C14" s="239"/>
+      <c r="B14" s="225"/>
+      <c r="C14" s="225"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -42066,7 +42725,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="42" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" style="169" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="168" customWidth="1"/>
     <col min="3" max="3" width="29.85546875" style="41" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" style="44" customWidth="1"/>
     <col min="5" max="5" width="15.140625" style="44" customWidth="1"/>
@@ -42080,7 +42739,7 @@
       <c r="A1" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="167" t="s">
+      <c r="B1" s="166" t="s">
         <v>111</v>
       </c>
       <c r="C1" s="40" t="s">
@@ -42107,7 +42766,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="62"/>
-      <c r="B2" s="168"/>
+      <c r="B2" s="167"/>
       <c r="C2" s="61"/>
       <c r="D2" s="60"/>
       <c r="E2" s="60"/>
@@ -42120,11 +42779,11 @@
       <c r="A3" s="62">
         <v>44588</v>
       </c>
-      <c r="B3" s="168" t="s">
-        <v>368</v>
+      <c r="B3" s="167" t="s">
+        <v>352</v>
       </c>
       <c r="C3" s="61" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="D3" s="60" t="s">
         <v>95</v>
@@ -42141,11 +42800,11 @@
       <c r="A4" s="62">
         <v>44581</v>
       </c>
-      <c r="B4" s="168" t="s">
-        <v>366</v>
+      <c r="B4" s="167" t="s">
+        <v>350</v>
       </c>
       <c r="C4" s="61" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="D4" s="60" t="s">
         <v>95</v>
@@ -42162,20 +42821,20 @@
       <c r="A5" s="62">
         <v>44581</v>
       </c>
-      <c r="B5" s="168" t="s">
-        <v>360</v>
+      <c r="B5" s="167" t="s">
+        <v>344</v>
       </c>
       <c r="C5" s="61" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="D5" s="60" t="s">
         <v>95</v>
       </c>
       <c r="E5" s="60" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="F5" s="62" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="H5" s="41"/>
       <c r="I5" s="41"/>
@@ -42185,11 +42844,11 @@
       <c r="A6" s="62">
         <v>44532</v>
       </c>
-      <c r="B6" s="168" t="s">
-        <v>339</v>
+      <c r="B6" s="167" t="s">
+        <v>329</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="D6" s="60" t="s">
         <v>95</v>
@@ -42210,11 +42869,11 @@
       <c r="A7" s="62">
         <v>44501</v>
       </c>
-      <c r="B7" s="168" t="s">
-        <v>337</v>
+      <c r="B7" s="167" t="s">
+        <v>327</v>
       </c>
       <c r="C7" s="61" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="D7" s="60" t="s">
         <v>95</v>
@@ -42224,7 +42883,7 @@
       </c>
       <c r="F7" s="62"/>
       <c r="H7" s="41" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="I7" s="120" t="s">
         <v>155</v>
@@ -42237,11 +42896,11 @@
       <c r="A8" s="62">
         <v>44500</v>
       </c>
-      <c r="B8" s="168" t="s">
-        <v>335</v>
+      <c r="B8" s="167" t="s">
+        <v>325</v>
       </c>
       <c r="C8" s="61" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="D8" s="60" t="s">
         <v>95</v>
@@ -42251,7 +42910,7 @@
       </c>
       <c r="F8" s="62"/>
       <c r="H8" s="41" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="I8" s="120" t="s">
         <v>95</v>
@@ -42262,17 +42921,17 @@
       <c r="A9" s="62">
         <v>44496</v>
       </c>
-      <c r="B9" s="168" t="s">
-        <v>329</v>
+      <c r="B9" s="167" t="s">
+        <v>320</v>
       </c>
       <c r="C9" s="61" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D9" s="60" t="s">
         <v>95</v>
       </c>
       <c r="E9" s="60" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="F9" s="62"/>
       <c r="H9" s="41" t="s">
@@ -42289,26 +42948,26 @@
       <c r="A10" s="62">
         <v>44496</v>
       </c>
-      <c r="B10" s="168" t="s">
-        <v>327</v>
+      <c r="B10" s="167" t="s">
+        <v>318</v>
       </c>
       <c r="C10" s="61" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="D10" s="60" t="s">
         <v>95</v>
       </c>
       <c r="E10" s="60" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="F10" s="62">
         <v>44495</v>
       </c>
       <c r="H10" s="41" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I10" s="120" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J10" s="43">
         <v>44391</v>
@@ -42318,11 +42977,11 @@
       <c r="A11" s="62">
         <v>44480</v>
       </c>
-      <c r="B11" s="168" t="s">
-        <v>320</v>
+      <c r="B11" s="167" t="s">
+        <v>311</v>
       </c>
       <c r="C11" s="61" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="D11" s="60" t="s">
         <v>95</v>
@@ -42333,7 +42992,7 @@
         <v>157</v>
       </c>
       <c r="I11" s="120" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J11" s="43">
         <v>44391</v>
@@ -42343,11 +43002,11 @@
       <c r="A12" s="62">
         <v>44480</v>
       </c>
-      <c r="B12" s="168" t="s">
-        <v>319</v>
+      <c r="B12" s="167" t="s">
+        <v>310</v>
       </c>
       <c r="C12" s="61" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D12" s="60" t="s">
         <v>95</v>
@@ -42360,7 +43019,7 @@
         <v>158</v>
       </c>
       <c r="I12" s="120" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J12" s="43">
         <v>44391</v>
@@ -42370,20 +43029,20 @@
       <c r="A13" s="62">
         <v>44480</v>
       </c>
-      <c r="B13" s="168" t="s">
-        <v>318</v>
+      <c r="B13" s="167" t="s">
+        <v>309</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D13" s="60" t="s">
         <v>95</v>
       </c>
       <c r="E13" s="60" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="F13" s="62" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H13" s="41"/>
       <c r="I13" s="41"/>
@@ -42397,7 +43056,7 @@
         <v>3.7</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D14" s="60" t="s">
         <v>95</v>
@@ -42415,16 +43074,16 @@
         <v>44463</v>
       </c>
       <c r="B15" s="60" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C15" s="61" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D15" s="60" t="s">
         <v>95</v>
       </c>
       <c r="E15" s="60" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="F15" s="62">
         <v>44432</v>
@@ -42438,10 +43097,10 @@
         <v>44459</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C16" s="61" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D16" s="60" t="s">
         <v>95</v>
@@ -42462,7 +43121,7 @@
         <v>3.6</v>
       </c>
       <c r="C17" s="61" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D17" s="60" t="s">
         <v>95</v>
@@ -42480,7 +43139,7 @@
         <v>3.5</v>
       </c>
       <c r="C18" s="61" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D18" s="60" t="s">
         <v>95</v>
@@ -42500,13 +43159,13 @@
         <v>3.5</v>
       </c>
       <c r="C19" s="61" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D19" s="60" t="s">
         <v>95</v>
       </c>
       <c r="E19" s="60" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="F19" s="62">
         <v>44424</v>
@@ -42520,7 +43179,7 @@
         <v>3.5</v>
       </c>
       <c r="C20" s="61" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D20" s="60" t="s">
         <v>95</v>
@@ -42533,10 +43192,10 @@
         <v>44423</v>
       </c>
       <c r="B21" s="60" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C21" s="61" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D21" s="60" t="s">
         <v>95</v>
@@ -42551,16 +43210,16 @@
         <v>44405</v>
       </c>
       <c r="B22" s="60" t="s">
+        <v>198</v>
+      </c>
+      <c r="C22" s="41" t="s">
         <v>200</v>
-      </c>
-      <c r="C22" s="41" t="s">
-        <v>202</v>
       </c>
       <c r="D22" s="60" t="s">
         <v>95</v>
       </c>
       <c r="E22" s="60" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="F22" s="62">
         <v>44405</v>
@@ -42571,10 +43230,10 @@
         <v>44405</v>
       </c>
       <c r="B23" s="60" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C23" s="61" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D23" s="60" t="s">
         <v>95</v>
@@ -42594,13 +43253,13 @@
         <v>183</v>
       </c>
       <c r="C24" s="61" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D24" s="60" t="s">
         <v>95</v>
       </c>
       <c r="E24" s="60" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="F24" s="62">
         <v>44391</v>
@@ -42620,7 +43279,7 @@
         <v>95</v>
       </c>
       <c r="E25" s="60" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="F25" s="62">
         <v>44391</v>
@@ -42640,7 +43299,7 @@
         <v>95</v>
       </c>
       <c r="E26" s="60" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="F26" s="62">
         <v>44391</v>
@@ -42660,7 +43319,7 @@
         <v>95</v>
       </c>
       <c r="E27" s="60" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="F27" s="62">
         <v>44391</v>
@@ -42821,7 +43480,7 @@
         <v>95</v>
       </c>
       <c r="E35" s="44" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="F35" s="43">
         <v>44372</v>
@@ -42841,7 +43500,7 @@
         <v>95</v>
       </c>
       <c r="E36" s="44" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="F36" s="43">
         <v>44372</v>
@@ -42921,7 +43580,7 @@
         <v>95</v>
       </c>
       <c r="E40" s="44" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="F40" s="43">
         <v>44315</v>
@@ -42961,7 +43620,7 @@
         <v>95</v>
       </c>
       <c r="E42" s="44" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="F42" s="43">
         <v>44291</v>
@@ -42975,7 +43634,7 @@
         <v>0.5</v>
       </c>
       <c r="C43" s="41" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="D43" s="44" t="s">
         <v>95</v>
@@ -42996,8 +43655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5BF7D8F-86F3-47E9-AB85-EE9B4CAB70E4}">
   <dimension ref="A1:P144"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43013,7 +43672,7 @@
     <col min="9" max="9" width="7.7109375" hidden="1" customWidth="1"/>
     <col min="10" max="12" width="8.7109375" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="10.85546875" customWidth="1"/>
-    <col min="14" max="14" width="37.7109375" style="158" customWidth="1"/>
+    <col min="14" max="14" width="37.7109375" style="157" customWidth="1"/>
     <col min="15" max="15" width="13" customWidth="1"/>
     <col min="16" max="16" width="9.85546875" customWidth="1"/>
     <col min="17" max="17" width="10.85546875" customWidth="1"/>
@@ -43026,180 +43685,180 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="208" t="str">
+      <c r="A1" s="194" t="str">
         <f>'ReadMe-Directions'!A1</f>
-        <v>Flex accounting for a combined Lake Powell-Lake Mead system</v>
-      </c>
-      <c r="B1" s="208"/>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
+        <v>Flex Accounting in a Combined Lake Powell-Lake Mead System: Tool and Discussion Activity</v>
+      </c>
+      <c r="B1" s="194"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>236</v>
+        <v>378</v>
       </c>
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="218" t="s">
-        <v>260</v>
-      </c>
-      <c r="B3" s="218"/>
-      <c r="C3" s="218"/>
-      <c r="D3" s="218"/>
-      <c r="E3" s="218"/>
-      <c r="F3" s="218"/>
-      <c r="G3" s="218"/>
+      <c r="A3" s="204" t="s">
+        <v>258</v>
+      </c>
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
       <c r="H3" s="91"/>
       <c r="I3" s="91"/>
       <c r="J3" s="91"/>
       <c r="K3" s="91"/>
-      <c r="N3" s="154" t="s">
-        <v>312</v>
+      <c r="N3" s="153" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="141" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B4" s="141" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="219" t="s">
+      <c r="C4" s="205" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="220"/>
-      <c r="E4" s="220"/>
-      <c r="F4" s="220"/>
-      <c r="G4" s="221"/>
-      <c r="N4" s="156" t="s">
-        <v>276</v>
+      <c r="D4" s="206"/>
+      <c r="E4" s="206"/>
+      <c r="F4" s="206"/>
+      <c r="G4" s="207"/>
+      <c r="N4" s="155" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="183"/>
-      <c r="C5" s="222"/>
-      <c r="D5" s="217"/>
-      <c r="E5" s="217"/>
-      <c r="F5" s="217"/>
-      <c r="G5" s="217"/>
-      <c r="N5" s="160"/>
+      <c r="B5" s="181"/>
+      <c r="C5" s="208"/>
+      <c r="D5" s="203"/>
+      <c r="E5" s="203"/>
+      <c r="F5" s="203"/>
+      <c r="G5" s="203"/>
+      <c r="N5" s="159"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="183"/>
-      <c r="C6" s="222"/>
-      <c r="D6" s="217"/>
-      <c r="E6" s="217"/>
-      <c r="F6" s="217"/>
-      <c r="G6" s="217"/>
-      <c r="N6" s="160"/>
+      <c r="B6" s="181"/>
+      <c r="C6" s="208"/>
+      <c r="D6" s="203"/>
+      <c r="E6" s="203"/>
+      <c r="F6" s="203"/>
+      <c r="G6" s="203"/>
+      <c r="N6" s="159"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="183"/>
-      <c r="C7" s="222"/>
-      <c r="D7" s="217"/>
-      <c r="E7" s="217"/>
-      <c r="F7" s="217"/>
-      <c r="G7" s="217"/>
-      <c r="N7" s="160"/>
+      <c r="B7" s="181"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="203"/>
+      <c r="E7" s="203"/>
+      <c r="F7" s="203"/>
+      <c r="G7" s="203"/>
+      <c r="N7" s="159"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="127" t="s">
         <v>94</v>
       </c>
       <c r="B8" s="126"/>
-      <c r="C8" s="217"/>
-      <c r="D8" s="217"/>
-      <c r="E8" s="217"/>
-      <c r="F8" s="217"/>
-      <c r="G8" s="217"/>
-      <c r="N8" s="160"/>
+      <c r="C8" s="203"/>
+      <c r="D8" s="203"/>
+      <c r="E8" s="203"/>
+      <c r="F8" s="203"/>
+      <c r="G8" s="203"/>
+      <c r="N8" s="159"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="153" t="s">
-        <v>359</v>
+      <c r="A9" s="152" t="s">
+        <v>343</v>
       </c>
       <c r="B9" s="101"/>
-      <c r="C9" s="223"/>
-      <c r="D9" s="223"/>
-      <c r="E9" s="223"/>
-      <c r="F9" s="223"/>
-      <c r="G9" s="223"/>
-      <c r="N9" s="160"/>
+      <c r="C9" s="209"/>
+      <c r="D9" s="209"/>
+      <c r="E9" s="209"/>
+      <c r="F9" s="209"/>
+      <c r="G9" s="209"/>
+      <c r="N9" s="159"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="128" t="s">
         <v>97</v>
       </c>
       <c r="B10" s="128"/>
-      <c r="C10" s="224"/>
-      <c r="D10" s="224"/>
-      <c r="E10" s="224"/>
-      <c r="F10" s="224"/>
-      <c r="G10" s="224"/>
-      <c r="N10" s="160"/>
+      <c r="C10" s="210"/>
+      <c r="D10" s="210"/>
+      <c r="E10" s="210"/>
+      <c r="F10" s="210"/>
+      <c r="G10" s="210"/>
+      <c r="N10" s="159"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="2"/>
       <c r="C11"/>
-      <c r="N11" s="160"/>
+      <c r="N11" s="159"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="B12" s="211" t="s">
         <v>239</v>
       </c>
-      <c r="B12" s="225" t="s">
+      <c r="C12" s="212"/>
+      <c r="D12" s="213"/>
+      <c r="N12" s="158" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="214" t="s">
+        <v>240</v>
+      </c>
+      <c r="C13" s="215"/>
+      <c r="D13" s="216"/>
+      <c r="N13" s="159"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="195" t="s">
         <v>241</v>
       </c>
-      <c r="C12" s="226"/>
-      <c r="D12" s="227"/>
-      <c r="N12" s="159" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="228" t="s">
-        <v>242</v>
-      </c>
-      <c r="C13" s="229"/>
-      <c r="D13" s="230"/>
-      <c r="N13" s="160"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="209" t="s">
-        <v>243</v>
-      </c>
-      <c r="C14" s="210"/>
-      <c r="D14" s="211"/>
-      <c r="N14" s="160"/>
+      <c r="C14" s="196"/>
+      <c r="D14" s="197"/>
+      <c r="N14" s="159"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="212" t="s">
+      <c r="B15" s="198" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="213"/>
-      <c r="D15" s="214"/>
-      <c r="N15" s="160"/>
+      <c r="C15" s="199"/>
+      <c r="D15" s="200"/>
+      <c r="N15" s="159"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N16" s="160"/>
+      <c r="N16" s="159"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>81</v>
@@ -43207,8 +43866,8 @@
       <c r="C17" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="N17" s="159" t="s">
-        <v>278</v>
+      <c r="N17" s="158" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -43222,13 +43881,13 @@
         <v>6</v>
       </c>
       <c r="D18" s="17"/>
-      <c r="N18" s="159" t="s">
-        <v>280</v>
+      <c r="N18" s="158" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B19" s="122">
         <v>7.2</v>
@@ -43237,26 +43896,26 @@
         <v>9</v>
       </c>
       <c r="D19" s="143" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F19" s="143"/>
-      <c r="N19" s="159" t="s">
-        <v>279</v>
+      <c r="N19" s="158" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="178">
+      <c r="B20" s="177">
         <v>3525</v>
       </c>
-      <c r="C20" s="178">
+      <c r="C20" s="177">
         <v>1020</v>
       </c>
       <c r="D20" s="11"/>
-      <c r="N20" s="159" t="s">
-        <v>281</v>
+      <c r="N20" s="158" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -43273,13 +43932,13 @@
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="30"/>
-      <c r="N21" s="159" t="s">
-        <v>283</v>
+      <c r="N21" s="158" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B22" s="122">
         <f>78.1</f>
@@ -43288,13 +43947,13 @@
       <c r="C22"/>
       <c r="D22" s="123"/>
       <c r="E22" s="30"/>
-      <c r="N22" s="159" t="s">
-        <v>282</v>
+      <c r="N22" s="158" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B23" s="144">
         <v>0.17</v>
@@ -43302,13 +43961,13 @@
       <c r="C23"/>
       <c r="D23" s="123"/>
       <c r="E23" s="30"/>
-      <c r="N23" s="159" t="s">
-        <v>284</v>
+      <c r="N23" s="158" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B24" s="122">
         <f>10*(7.5+1.5/2)-B22-B23</f>
@@ -43317,13 +43976,13 @@
       <c r="C24"/>
       <c r="D24" s="123"/>
       <c r="E24" s="30"/>
-      <c r="N24" s="159" t="s">
-        <v>285</v>
+      <c r="N24" s="158" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="B25" s="122">
         <f>2.7 + 0.3 - IF(A9&lt;&gt;"",1.06,0)</f>
@@ -43332,17 +43991,17 @@
       <c r="C25"/>
       <c r="D25" s="123"/>
       <c r="E25" s="30"/>
-      <c r="N25" s="179" t="s">
-        <v>331</v>
+      <c r="N25" s="178" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B26" s="30"/>
-      <c r="N26" s="160"/>
+      <c r="N26" s="159"/>
     </row>
     <row r="27" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="113" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B27" s="114" t="s">
         <v>34</v>
@@ -43380,14 +44039,14 @@
       <c r="M27" s="114" t="s">
         <v>79</v>
       </c>
-      <c r="N27" s="155" t="str">
+      <c r="N27" s="154" t="str">
         <f>N3</f>
         <v>HELP, CONTEXT, and SUGGESTIONS</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="138" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="108"/>
@@ -43400,8 +44059,8 @@
       <c r="J28" s="108"/>
       <c r="K28" s="108"/>
       <c r="L28" s="108"/>
-      <c r="N28" s="156" t="s">
-        <v>286</v>
+      <c r="N28" s="155" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -43449,13 +44108,13 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N29" s="159" t="s">
-        <v>287</v>
+      <c r="N29" s="158" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="107" t="str">
@@ -43498,8 +44157,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N30" s="159" t="s">
-        <v>288</v>
+      <c r="N30" s="158" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -43547,13 +44206,13 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N31" s="159" t="s">
-        <v>289</v>
+      <c r="N31" s="158" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="138" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C32" s="13" t="str">
         <f>IF(C$28&lt;&gt;"",SUM(B19:C19),"")</f>
@@ -43595,8 +44254,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N32" s="156" t="s">
-        <v>290</v>
+      <c r="N32" s="155" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -43648,7 +44307,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N33" s="160"/>
+      <c r="N33" s="159"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
@@ -43699,7 +44358,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="N34" s="160"/>
+      <c r="N34" s="159"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
@@ -43749,7 +44408,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="N35" s="160"/>
+      <c r="N35" s="159"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
@@ -43799,7 +44458,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="N36" s="160"/>
+      <c r="N36" s="159"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
@@ -43850,7 +44509,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="N37" s="160"/>
+      <c r="N37" s="159"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
@@ -43901,15 +44560,15 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="N38" s="160"/>
+      <c r="N38" s="159"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C39"/>
-      <c r="N39" s="159" t="s">
-        <v>310</v>
+      <c r="N39" s="158" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -43956,7 +44615,7 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="N40" s="160"/>
+      <c r="N40" s="159"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -44002,11 +44661,11 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N41" s="160"/>
+      <c r="N41" s="159"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="13" t="str">
@@ -44049,8 +44708,8 @@
         <f>IF(L$28&lt;&gt;"",VLOOKUP(L40*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(L41*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
         <v/>
       </c>
-      <c r="N42" s="159" t="s">
-        <v>291</v>
+      <c r="N42" s="158" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -44099,7 +44758,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="N43" s="160"/>
+      <c r="N43" s="159"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
@@ -44147,7 +44806,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="N44" s="160"/>
+      <c r="N44" s="159"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
@@ -44195,7 +44854,7 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="N45" s="160"/>
+      <c r="N45" s="159"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
@@ -44243,7 +44902,7 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="N46" s="160"/>
+      <c r="N46" s="159"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
@@ -44291,7 +44950,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="N47" s="160"/>
+      <c r="N47" s="159"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
@@ -44339,11 +44998,11 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="N48" s="160"/>
+      <c r="N48" s="159"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B49" s="54"/>
       <c r="C49" s="33" t="str">
@@ -44386,13 +45045,13 @@
         <f>IF(L$28&lt;&gt;"",1.5-0.21/9/2-VLOOKUP(L41,MandatoryConservation!$C$5:$P$13,13),"")</f>
         <v/>
       </c>
-      <c r="N49" s="159" t="s">
-        <v>292</v>
+      <c r="N49" s="158" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="138" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="13" t="str">
@@ -44436,11 +45095,11 @@
         <v/>
       </c>
       <c r="M50" s="30"/>
-      <c r="N50" s="157" t="s">
-        <v>293</v>
+      <c r="N50" s="156" t="s">
+        <v>284</v>
       </c>
       <c r="P50" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
@@ -44449,7 +45108,7 @@
         <v xml:space="preserve">    To Upper Basin</v>
       </c>
       <c r="B51" s="105" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="C51" s="87" t="str">
         <f>IF(OR(C$28="",$A52=""),"",MAX(0,MAX(0,C50-SUM(C52:C57))))</f>
@@ -44492,7 +45151,7 @@
         <v/>
       </c>
       <c r="M51" s="19"/>
-      <c r="N51" s="161"/>
+      <c r="N51" s="160"/>
       <c r="P51" s="87" t="str">
         <f>IF(OR(P$28="",$A51=""),"",MAX(P28-($B$24)-P56*$B$21/SUM($B$21:$C$21),0))</f>
         <v/>
@@ -44548,7 +45207,7 @@
         <v/>
       </c>
       <c r="M52" s="19"/>
-      <c r="N52" s="161"/>
+      <c r="N52" s="160"/>
       <c r="P52" s="87" t="str">
         <f>IF(OR(P$28="",$A52=""),"",P29+P30-P31-P56*$C$21/SUM($B$21:$C$21)-P53+MIN($B$24,P28))</f>
         <v/>
@@ -44560,7 +45219,7 @@
         <v xml:space="preserve">    To Mexico</v>
       </c>
       <c r="B53" s="106" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C53" s="88" t="str">
         <f>IF(OR(C$28="",$A53=""),"",MIN(C49-C54/2,C$50-SUM(C54:C57))-C57*(1.5/8.7))</f>
@@ -44603,7 +45262,7 @@
         <v/>
       </c>
       <c r="M53" s="19"/>
-      <c r="N53" s="161"/>
+      <c r="N53" s="160"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
@@ -44655,7 +45314,7 @@
         <v/>
       </c>
       <c r="M54" s="19"/>
-      <c r="N54" s="161"/>
+      <c r="N54" s="160"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
@@ -44707,7 +45366,7 @@
         <v/>
       </c>
       <c r="M55" s="19"/>
-      <c r="N55" s="161"/>
+      <c r="N55" s="160"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
@@ -44715,101 +45374,101 @@
         <v xml:space="preserve">    To Shared, Reserve</v>
       </c>
       <c r="B56" s="106" t="s">
-        <v>216</v>
-      </c>
-      <c r="C56" s="171" t="str">
+        <v>214</v>
+      </c>
+      <c r="C56" s="170" t="str">
         <f>IF(OR(C$28="",$A56=""),"",IF(C$50&gt;C48,C48,C50))</f>
         <v/>
       </c>
-      <c r="D56" s="171" t="str">
+      <c r="D56" s="170" t="str">
         <f t="shared" ref="D56:L56" si="25">IF(OR(D$28="",$A56=""),"",IF(D$50&gt;D48,D48,D50))</f>
         <v/>
       </c>
-      <c r="E56" s="171" t="str">
+      <c r="E56" s="170" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="F56" s="171" t="str">
+      <c r="F56" s="170" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="G56" s="171" t="str">
+      <c r="G56" s="170" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="H56" s="171" t="str">
+      <c r="H56" s="170" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="I56" s="171" t="str">
+      <c r="I56" s="170" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="J56" s="171" t="str">
+      <c r="J56" s="170" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="K56" s="171" t="str">
+      <c r="K56" s="170" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="L56" s="171" t="str">
+      <c r="L56" s="170" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="M56" s="19"/>
-      <c r="N56" s="161"/>
+      <c r="N56" s="160"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f>IF(A31="","","    To "&amp;A31)</f>
         <v xml:space="preserve">    To Havasu / Parker evaporation and ET</v>
       </c>
-      <c r="B57" s="170" t="s">
-        <v>326</v>
-      </c>
-      <c r="C57" s="172" t="str">
+      <c r="B57" s="169" t="s">
+        <v>317</v>
+      </c>
+      <c r="C57" s="171" t="str">
         <f>IF(OR(C$28="",$A57=""),"",MIN(C31,C50-C56))</f>
         <v/>
       </c>
-      <c r="D57" s="172" t="str">
+      <c r="D57" s="171" t="str">
         <f t="shared" ref="D57:L57" si="26">IF(OR(D$28="",$A57=""),"",MIN(D31,D50-D56))</f>
         <v/>
       </c>
-      <c r="E57" s="172" t="str">
+      <c r="E57" s="171" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="F57" s="172" t="str">
+      <c r="F57" s="171" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="G57" s="172" t="str">
+      <c r="G57" s="171" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="H57" s="172" t="str">
+      <c r="H57" s="171" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="I57" s="172" t="str">
+      <c r="I57" s="171" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="J57" s="172" t="str">
+      <c r="J57" s="171" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="K57" s="172" t="str">
+      <c r="K57" s="171" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="L57" s="172" t="str">
+      <c r="L57" s="171" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="M57" s="19"/>
-      <c r="N57" s="161"/>
+      <c r="N57" s="160"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B58" s="20"/>
@@ -44818,11 +45477,11 @@
       <c r="E58" s="19"/>
       <c r="F58" s="129"/>
       <c r="G58" s="30"/>
-      <c r="N58" s="160"/>
+      <c r="N58" s="159"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="112" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B59" s="109"/>
       <c r="C59" s="109"/>
@@ -44836,7 +45495,7 @@
       <c r="K59" s="109"/>
       <c r="L59" s="109"/>
       <c r="M59" s="109"/>
-      <c r="N59" s="155" t="str">
+      <c r="N59" s="154" t="str">
         <f>N3</f>
         <v>HELP, CONTEXT, and SUGGESTIONS</v>
       </c>
@@ -44860,8 +45519,8 @@
       <c r="M60" s="111" t="s">
         <v>79</v>
       </c>
-      <c r="N60" s="156" t="s">
-        <v>294</v>
+      <c r="N60" s="155" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
@@ -44883,8 +45542,8 @@
         <f>SUM(C61:L61)</f>
         <v>0</v>
       </c>
-      <c r="N61" s="162" t="s">
-        <v>295</v>
+      <c r="N61" s="161" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
@@ -44906,8 +45565,8 @@
         <f>SUM(C62:L62)</f>
         <v>0</v>
       </c>
-      <c r="N62" s="163" t="s">
-        <v>296</v>
+      <c r="N62" s="162" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
@@ -44959,8 +45618,8 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="N63" s="159" t="s">
-        <v>297</v>
+      <c r="N63" s="158" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
@@ -45008,8 +45667,8 @@
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="N64" s="159" t="s">
-        <v>298</v>
+      <c r="N64" s="158" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -45027,8 +45686,8 @@
       <c r="J65" s="104"/>
       <c r="K65" s="104"/>
       <c r="L65" s="104"/>
-      <c r="N65" s="159" t="s">
-        <v>311</v>
+      <c r="N65" s="158" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
@@ -45076,13 +45735,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="N66" s="159" t="s">
-        <v>299</v>
+      <c r="N66" s="158" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C67"/>
-      <c r="N67" s="160"/>
+      <c r="N67" s="159"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="132" t="str">
@@ -45103,8 +45762,8 @@
       <c r="M68" s="111" t="s">
         <v>79</v>
       </c>
-      <c r="N68" s="156" t="s">
-        <v>294</v>
+      <c r="N68" s="155" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -45126,8 +45785,8 @@
         <f>SUM(C69:L69)</f>
         <v>0</v>
       </c>
-      <c r="N69" s="162" t="s">
-        <v>295</v>
+      <c r="N69" s="161" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
@@ -45149,8 +45808,8 @@
         <f>SUM(C70:L70)</f>
         <v>0</v>
       </c>
-      <c r="N70" s="163" t="s">
-        <v>296</v>
+      <c r="N70" s="162" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
@@ -45202,8 +45861,8 @@
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="N71" s="159" t="s">
-        <v>297</v>
+      <c r="N71" s="158" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
@@ -45251,8 +45910,8 @@
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="N72" s="159" t="s">
-        <v>298</v>
+      <c r="N72" s="158" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
@@ -45270,8 +45929,8 @@
       <c r="J73" s="104"/>
       <c r="K73" s="104"/>
       <c r="L73" s="104"/>
-      <c r="N73" s="159" t="s">
-        <v>311</v>
+      <c r="N73" s="158" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
@@ -45319,13 +45978,13 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="N74" s="159" t="s">
-        <v>299</v>
+      <c r="N74" s="158" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C75"/>
-      <c r="N75" s="160"/>
+      <c r="N75" s="159"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="132" t="str">
@@ -45346,8 +46005,8 @@
       <c r="M76" s="111" t="s">
         <v>79</v>
       </c>
-      <c r="N76" s="156" t="s">
-        <v>294</v>
+      <c r="N76" s="155" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
@@ -45369,8 +46028,8 @@
         <f>SUM(C77:L77)</f>
         <v>0</v>
       </c>
-      <c r="N77" s="162" t="s">
-        <v>295</v>
+      <c r="N77" s="161" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
@@ -45392,8 +46051,8 @@
         <f>SUM(C78:L78)</f>
         <v>0</v>
       </c>
-      <c r="N78" s="163" t="s">
-        <v>296</v>
+      <c r="N78" s="162" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
@@ -45445,8 +46104,8 @@
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="N79" s="159" t="s">
-        <v>297</v>
+      <c r="N79" s="158" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
@@ -45494,8 +46153,8 @@
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="N80" s="159" t="s">
-        <v>298</v>
+      <c r="N80" s="158" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
@@ -45513,8 +46172,8 @@
       <c r="J81" s="104"/>
       <c r="K81" s="104"/>
       <c r="L81" s="104"/>
-      <c r="N81" s="159" t="s">
-        <v>311</v>
+      <c r="N81" s="158" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
@@ -45562,13 +46221,13 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="N82" s="159" t="s">
-        <v>299</v>
+      <c r="N82" s="158" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C83"/>
-      <c r="N83" s="160"/>
+      <c r="N83" s="159"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="132" t="str">
@@ -45589,8 +46248,8 @@
       <c r="M84" s="111" t="s">
         <v>79</v>
       </c>
-      <c r="N84" s="156" t="s">
-        <v>294</v>
+      <c r="N84" s="155" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
@@ -45612,8 +46271,8 @@
         <f>SUM(C85:L85)</f>
         <v>0</v>
       </c>
-      <c r="N85" s="162" t="s">
-        <v>295</v>
+      <c r="N85" s="161" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
@@ -45635,8 +46294,8 @@
         <f>SUM(C86:L86)</f>
         <v>0</v>
       </c>
-      <c r="N86" s="163" t="s">
-        <v>296</v>
+      <c r="N86" s="162" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -45688,8 +46347,8 @@
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="N87" s="159" t="s">
-        <v>297</v>
+      <c r="N87" s="158" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
@@ -45737,8 +46396,8 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="N88" s="159" t="s">
-        <v>298</v>
+      <c r="N88" s="158" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -45756,8 +46415,8 @@
       <c r="J89" s="131"/>
       <c r="K89" s="131"/>
       <c r="L89" s="131"/>
-      <c r="N89" s="159" t="s">
-        <v>311</v>
+      <c r="N89" s="158" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
@@ -45805,13 +46464,13 @@
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="N90" s="159" t="s">
-        <v>299</v>
+      <c r="N90" s="158" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C91"/>
-      <c r="N91" s="160"/>
+      <c r="N91" s="159"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="132" t="str">
@@ -45832,8 +46491,8 @@
       <c r="M92" s="111" t="s">
         <v>79</v>
       </c>
-      <c r="N92" s="156" t="s">
-        <v>294</v>
+      <c r="N92" s="155" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
@@ -45855,8 +46514,8 @@
         <f>SUM(C93:L93)</f>
         <v>0</v>
       </c>
-      <c r="N93" s="162" t="s">
-        <v>295</v>
+      <c r="N93" s="161" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -45878,8 +46537,8 @@
         <f>SUM(C94:L94)</f>
         <v>0</v>
       </c>
-      <c r="N94" s="163" t="s">
-        <v>296</v>
+      <c r="N94" s="162" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
@@ -45931,8 +46590,8 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="N95" s="159" t="s">
-        <v>297</v>
+      <c r="N95" s="158" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
@@ -45980,8 +46639,8 @@
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="N96" s="159" t="s">
-        <v>298</v>
+      <c r="N96" s="158" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
@@ -45999,8 +46658,8 @@
       <c r="J97" s="104"/>
       <c r="K97" s="104"/>
       <c r="L97" s="104"/>
-      <c r="N97" s="159" t="s">
-        <v>311</v>
+      <c r="N97" s="158" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
@@ -46048,13 +46707,13 @@
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="N98" s="159" t="s">
-        <v>299</v>
+      <c r="N98" s="158" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C99"/>
-      <c r="N99" s="160"/>
+      <c r="N99" s="159"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="132" t="str">
@@ -46075,8 +46734,8 @@
       <c r="M100" s="111" t="s">
         <v>79</v>
       </c>
-      <c r="N100" s="159" t="s">
-        <v>309</v>
+      <c r="N100" s="158" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
@@ -46098,7 +46757,7 @@
         <f>SUM(C101:L101)</f>
         <v>0</v>
       </c>
-      <c r="N101" s="164"/>
+      <c r="N101" s="163"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="139" t="str">
@@ -46119,7 +46778,7 @@
         <f>SUM(C102:L102)</f>
         <v>0</v>
       </c>
-      <c r="N102" s="165"/>
+      <c r="N102" s="164"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="145" t="str">
@@ -46170,7 +46829,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="N103" s="160"/>
+      <c r="N103" s="159"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="str">
@@ -46217,7 +46876,7 @@
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="N104" s="160"/>
+      <c r="N104" s="159"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="138" t="str">
@@ -46234,7 +46893,7 @@
       <c r="J105" s="29"/>
       <c r="K105" s="29"/>
       <c r="L105" s="29"/>
-      <c r="N105" s="160"/>
+      <c r="N105" s="159"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="21" t="str">
@@ -46281,15 +46940,15 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="N106" s="160"/>
+      <c r="N106" s="159"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C107"/>
-      <c r="N107" s="160"/>
+      <c r="N107" s="159"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="112" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B108" s="112"/>
       <c r="C108" s="112"/>
@@ -46303,19 +46962,19 @@
       <c r="K108" s="112"/>
       <c r="L108" s="112"/>
       <c r="M108" s="112"/>
-      <c r="N108" s="159" t="s">
-        <v>300</v>
+      <c r="N108" s="158" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C109"/>
       <c r="M109" t="s">
         <v>114</v>
       </c>
-      <c r="N109" s="160"/>
+      <c r="N109" s="159"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
@@ -46359,15 +47018,15 @@
         <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
-      <c r="L110" s="150" t="str">
+      <c r="L110" s="149" t="str">
         <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
-      <c r="M110" s="151">
+      <c r="M110" s="150">
         <f ca="1">IF(OR($A110=""),"",SUM(C110:L110))</f>
         <v>0</v>
       </c>
-      <c r="N110" s="164"/>
+      <c r="N110" s="163"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
@@ -46411,15 +47070,15 @@
         <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
-      <c r="L111" s="150" t="str">
+      <c r="L111" s="149" t="str">
         <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
-      <c r="M111" s="151">
+      <c r="M111" s="150">
         <f t="shared" ref="M111:M115" ca="1" si="48">IF(OR($A111=""),"",SUM(C111:L111))</f>
         <v>0</v>
       </c>
-      <c r="N111" s="164"/>
+      <c r="N111" s="163"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
@@ -46463,15 +47122,15 @@
         <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
-      <c r="L112" s="150" t="str">
+      <c r="L112" s="149" t="str">
         <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
-      <c r="M112" s="151">
+      <c r="M112" s="150">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="N112" s="164"/>
+      <c r="N112" s="163"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
@@ -46515,15 +47174,15 @@
         <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
-      <c r="L113" s="150" t="str">
+      <c r="L113" s="149" t="str">
         <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
-      <c r="M113" s="151">
+      <c r="M113" s="150">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="N113" s="164"/>
+      <c r="N113" s="163"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
@@ -46567,15 +47226,15 @@
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="L114" s="150" t="str">
+      <c r="L114" s="149" t="str">
         <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
-      <c r="M114" s="151">
+      <c r="M114" s="150">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="N114" s="164"/>
+      <c r="N114" s="163"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
@@ -46619,15 +47278,15 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="L115" s="150" t="str">
+      <c r="L115" s="149" t="str">
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="M115" s="151">
+      <c r="M115" s="150">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="N115" s="164"/>
+      <c r="N115" s="163"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
@@ -46675,11 +47334,11 @@
         <v/>
       </c>
       <c r="M116" s="22"/>
-      <c r="N116" s="166"/>
+      <c r="N116" s="165"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="37"/>
@@ -46692,7 +47351,7 @@
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
-      <c r="N117" s="160"/>
+      <c r="N117" s="159"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
@@ -46739,7 +47398,7 @@
         <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
-      <c r="N118" s="160"/>
+      <c r="N118" s="159"/>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
@@ -46786,7 +47445,7 @@
         <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
-      <c r="N119" s="160"/>
+      <c r="N119" s="159"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
@@ -46833,7 +47492,7 @@
         <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
-      <c r="N120" s="160"/>
+      <c r="N120" s="159"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
@@ -46880,7 +47539,7 @@
         <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
-      <c r="N121" s="160"/>
+      <c r="N121" s="159"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
@@ -46927,7 +47586,7 @@
         <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
-      <c r="N122" s="160"/>
+      <c r="N122" s="159"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" t="str">
@@ -46974,7 +47633,7 @@
         <f t="shared" ca="1" si="59"/>
         <v/>
       </c>
-      <c r="N123" s="160"/>
+      <c r="N123" s="159"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
@@ -46990,7 +47649,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
-      <c r="N124" s="160"/>
+      <c r="N124" s="159"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
@@ -47037,7 +47696,7 @@
         <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
-      <c r="N125" s="160"/>
+      <c r="N125" s="159"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
@@ -47084,7 +47743,7 @@
         <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
-      <c r="N126" s="160"/>
+      <c r="N126" s="159"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
@@ -47131,7 +47790,7 @@
         <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
-      <c r="N127" s="160"/>
+      <c r="N127" s="159"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
@@ -47178,7 +47837,7 @@
         <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
-      <c r="N128" s="160"/>
+      <c r="N128" s="159"/>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
@@ -47225,7 +47884,7 @@
         <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
-      <c r="N129" s="160"/>
+      <c r="N129" s="159"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" t="str">
@@ -47272,11 +47931,11 @@
         <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
-      <c r="N130" s="160"/>
+      <c r="N130" s="159"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B131" s="1"/>
       <c r="C131" s="13" t="str">
@@ -47319,15 +47978,15 @@
         <f t="shared" si="67"/>
         <v/>
       </c>
-      <c r="N131" s="159" t="s">
-        <v>301</v>
+      <c r="N131" s="158" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="132" spans="1:14" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="215" t="s">
-        <v>274</v>
-      </c>
-      <c r="B132" s="216"/>
+      <c r="A132" s="201" t="s">
+        <v>265</v>
+      </c>
+      <c r="B132" s="202"/>
       <c r="C132" s="140"/>
       <c r="D132" s="140"/>
       <c r="E132" s="140"/>
@@ -47338,13 +47997,13 @@
       <c r="J132" s="140"/>
       <c r="K132" s="140"/>
       <c r="L132" s="140"/>
-      <c r="N132" s="156" t="s">
-        <v>302</v>
+      <c r="N132" s="155" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B133" s="1"/>
       <c r="C133" s="13" t="str">
@@ -47387,13 +48046,13 @@
         <f t="shared" si="68"/>
         <v/>
       </c>
-      <c r="N133" s="159" t="s">
-        <v>313</v>
+      <c r="N133" s="158" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B134" s="1"/>
       <c r="C134" s="13" t="str">
@@ -47436,8 +48095,8 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="N134" s="159" t="s">
-        <v>313</v>
+      <c r="N134" s="158" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
@@ -47485,8 +48144,8 @@
         <f>IF(L$28&lt;&gt;"",VLOOKUP(L133*1000000,'Powell-Elevation-Area'!$B$5:$H$689,7),"")</f>
         <v/>
       </c>
-      <c r="N135" s="159" t="s">
-        <v>313</v>
+      <c r="N135" s="158" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
@@ -47534,22 +48193,22 @@
         <f>IF(L$28&lt;&gt;"",VLOOKUP(L134*1000000,'Mead-Elevation-Area'!$B$5:$H$689,7),"")</f>
         <v/>
       </c>
-      <c r="N136" s="159" t="s">
-        <v>313</v>
+      <c r="N136" s="158" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B137" s="1"/>
-      <c r="N137" s="159" t="s">
-        <v>303</v>
+      <c r="N137" s="158" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B138" s="1"/>
       <c r="C138" s="13" t="str">
@@ -47592,13 +48251,13 @@
         <f>IF(L$28&lt;&gt;"",-L133+L40+L28-L65-VLOOKUP(L40*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000,"")</f>
         <v/>
       </c>
-      <c r="N138" s="159" t="s">
-        <v>304</v>
+      <c r="N138" s="158" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="21" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B139" s="1"/>
       <c r="C139" s="63" t="str">
@@ -47641,13 +48300,13 @@
         <f>IF(L$28&lt;&gt;"",VLOOKUP(L135,PowellReleaseTemperature!$A$5:$B$11,2),"")</f>
         <v/>
       </c>
-      <c r="N139" s="159" t="s">
-        <v>305</v>
+      <c r="N139" s="158" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="140" spans="1:14" s="65" customFormat="1" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="94" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B140" s="64"/>
       <c r="C140" s="93" t="str">
@@ -47690,8 +48349,8 @@
         <f>IF(L$28&lt;&gt;"",VLOOKUP(L$135,PowellReleaseTemperature!$A$5:$E$11,5),"")</f>
         <v/>
       </c>
-      <c r="N140" s="159" t="s">
-        <v>307</v>
+      <c r="N140" s="158" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="141" spans="1:14" s="65" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -47739,17 +48398,17 @@
         <f>IF(L$28&lt;&gt;"",VLOOKUP(L$135,PowellReleaseTemperature!$A$5:$F$11,6),"")</f>
         <v/>
       </c>
-      <c r="N141" s="159" t="s">
-        <v>306</v>
+      <c r="N141" s="158" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A142" s="152" t="s">
-        <v>275</v>
+      <c r="A142" s="151" t="s">
+        <v>266</v>
       </c>
       <c r="C142" s="19"/>
-      <c r="N142" s="159" t="s">
-        <v>308</v>
+      <c r="N142" s="158" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
@@ -48469,7 +49128,7 @@
     <col min="9" max="9" width="7.7109375" hidden="1" customWidth="1"/>
     <col min="10" max="12" width="8.7109375" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="10.85546875" customWidth="1"/>
-    <col min="14" max="14" width="37.7109375" style="158" customWidth="1"/>
+    <col min="14" max="14" width="37.7109375" style="157" customWidth="1"/>
     <col min="15" max="15" width="13" customWidth="1"/>
     <col min="16" max="16" width="9.85546875" customWidth="1"/>
     <col min="17" max="17" width="10.85546875" customWidth="1"/>
@@ -48482,208 +49141,208 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="208" t="str">
+      <c r="A1" s="194" t="str">
         <f>'ReadMe-Directions'!A1</f>
-        <v>Flex accounting for a combined Lake Powell-Lake Mead system</v>
-      </c>
-      <c r="B1" s="208"/>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
+        <v>Flex Accounting in a Combined Lake Powell-Lake Mead System: Tool and Discussion Activity</v>
+      </c>
+      <c r="B1" s="194"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="218" t="s">
-        <v>260</v>
-      </c>
-      <c r="B3" s="218"/>
-      <c r="C3" s="218"/>
-      <c r="D3" s="218"/>
-      <c r="E3" s="218"/>
-      <c r="F3" s="218"/>
-      <c r="G3" s="218"/>
-      <c r="H3" s="182"/>
-      <c r="I3" s="182"/>
-      <c r="J3" s="182"/>
-      <c r="K3" s="182"/>
-      <c r="N3" s="154" t="s">
-        <v>312</v>
+      <c r="A3" s="204" t="s">
+        <v>258</v>
+      </c>
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="180"/>
+      <c r="J3" s="180"/>
+      <c r="K3" s="180"/>
+      <c r="N3" s="153" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="141" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B4" s="141" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="219" t="s">
+      <c r="C4" s="205" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="220"/>
-      <c r="E4" s="220"/>
-      <c r="F4" s="220"/>
-      <c r="G4" s="221"/>
-      <c r="N4" s="156" t="s">
-        <v>276</v>
+      <c r="D4" s="206"/>
+      <c r="E4" s="206"/>
+      <c r="F4" s="206"/>
+      <c r="G4" s="207"/>
+      <c r="N4" s="155" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="181" t="str">
+      <c r="A5" s="179" t="str">
         <f>IF(Master!A5="","",Master!A5)</f>
         <v>Upper Basin</v>
       </c>
-      <c r="B5" s="183" t="s">
-        <v>356</v>
-      </c>
-      <c r="C5" s="222" t="s">
-        <v>357</v>
-      </c>
-      <c r="D5" s="217"/>
-      <c r="E5" s="217"/>
-      <c r="F5" s="217"/>
-      <c r="G5" s="217"/>
-      <c r="N5" s="160"/>
+      <c r="B5" s="181" t="s">
+        <v>340</v>
+      </c>
+      <c r="C5" s="208" t="s">
+        <v>341</v>
+      </c>
+      <c r="D5" s="203"/>
+      <c r="E5" s="203"/>
+      <c r="F5" s="203"/>
+      <c r="G5" s="203"/>
+      <c r="N5" s="159"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="181" t="str">
+      <c r="A6" s="179" t="str">
         <f>IF(Master!A6="","",Master!A6)</f>
         <v>Lower Basin</v>
       </c>
-      <c r="B6" s="183" t="s">
-        <v>356</v>
-      </c>
-      <c r="C6" s="222" t="s">
-        <v>357</v>
-      </c>
-      <c r="D6" s="217"/>
-      <c r="E6" s="217"/>
-      <c r="F6" s="217"/>
-      <c r="G6" s="217"/>
-      <c r="N6" s="160"/>
+      <c r="B6" s="181" t="s">
+        <v>340</v>
+      </c>
+      <c r="C6" s="208" t="s">
+        <v>341</v>
+      </c>
+      <c r="D6" s="203"/>
+      <c r="E6" s="203"/>
+      <c r="F6" s="203"/>
+      <c r="G6" s="203"/>
+      <c r="N6" s="159"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="181" t="str">
+      <c r="A7" s="179" t="str">
         <f>IF(Master!A7="","",Master!A7)</f>
         <v>Mexico</v>
       </c>
-      <c r="B7" s="183" t="s">
-        <v>356</v>
-      </c>
-      <c r="C7" s="222" t="s">
-        <v>357</v>
-      </c>
-      <c r="D7" s="217"/>
-      <c r="E7" s="217"/>
-      <c r="F7" s="217"/>
-      <c r="G7" s="217"/>
-      <c r="N7" s="160"/>
+      <c r="B7" s="181" t="s">
+        <v>340</v>
+      </c>
+      <c r="C7" s="208" t="s">
+        <v>341</v>
+      </c>
+      <c r="D7" s="203"/>
+      <c r="E7" s="203"/>
+      <c r="F7" s="203"/>
+      <c r="G7" s="203"/>
+      <c r="N7" s="159"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="181" t="str">
+      <c r="A8" s="179" t="str">
         <f>IF(Master!A8="","",Master!A8)</f>
         <v>Colorado River Delta</v>
       </c>
-      <c r="B8" s="183" t="s">
-        <v>356</v>
-      </c>
-      <c r="C8" s="222" t="s">
-        <v>357</v>
-      </c>
-      <c r="D8" s="217"/>
-      <c r="E8" s="217"/>
-      <c r="F8" s="217"/>
-      <c r="G8" s="217"/>
-      <c r="N8" s="160"/>
+      <c r="B8" s="181" t="s">
+        <v>340</v>
+      </c>
+      <c r="C8" s="208" t="s">
+        <v>341</v>
+      </c>
+      <c r="D8" s="203"/>
+      <c r="E8" s="203"/>
+      <c r="F8" s="203"/>
+      <c r="G8" s="203"/>
+      <c r="N8" s="159"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="181" t="str">
+      <c r="A9" s="179" t="str">
         <f>IF(Master!A9="","",Master!A9)</f>
         <v>First Nations</v>
       </c>
-      <c r="B9" s="183" t="str">
+      <c r="B9" s="181" t="str">
         <f>IF($A9&lt;&gt;"",B8,"")</f>
         <v>Law</v>
       </c>
-      <c r="C9" s="231" t="s">
-        <v>365</v>
-      </c>
-      <c r="D9" s="232"/>
-      <c r="E9" s="232"/>
-      <c r="F9" s="232"/>
-      <c r="G9" s="233"/>
-      <c r="N9" s="160"/>
+      <c r="C9" s="217" t="s">
+        <v>349</v>
+      </c>
+      <c r="D9" s="218"/>
+      <c r="E9" s="218"/>
+      <c r="F9" s="218"/>
+      <c r="G9" s="219"/>
+      <c r="N9" s="159"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="184" t="s">
+      <c r="A10" s="182" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="184"/>
-      <c r="C10" s="224" t="s">
-        <v>358</v>
-      </c>
-      <c r="D10" s="224"/>
-      <c r="E10" s="224"/>
-      <c r="F10" s="224"/>
-      <c r="G10" s="224"/>
-      <c r="N10" s="160"/>
+      <c r="B10" s="182"/>
+      <c r="C10" s="210" t="s">
+        <v>342</v>
+      </c>
+      <c r="D10" s="210"/>
+      <c r="E10" s="210"/>
+      <c r="F10" s="210"/>
+      <c r="G10" s="210"/>
+      <c r="N10" s="159"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="2"/>
       <c r="C11"/>
-      <c r="N11" s="160"/>
+      <c r="N11" s="159"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="B12" s="211" t="s">
         <v>239</v>
       </c>
-      <c r="B12" s="225" t="s">
+      <c r="C12" s="212"/>
+      <c r="D12" s="213"/>
+      <c r="N12" s="158" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="214" t="s">
+        <v>240</v>
+      </c>
+      <c r="C13" s="215"/>
+      <c r="D13" s="216"/>
+      <c r="N13" s="159"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="195" t="s">
         <v>241</v>
       </c>
-      <c r="C12" s="226"/>
-      <c r="D12" s="227"/>
-      <c r="N12" s="159" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="228" t="s">
-        <v>242</v>
-      </c>
-      <c r="C13" s="229"/>
-      <c r="D13" s="230"/>
-      <c r="N13" s="160"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="209" t="s">
-        <v>243</v>
-      </c>
-      <c r="C14" s="210"/>
-      <c r="D14" s="211"/>
-      <c r="N14" s="160"/>
+      <c r="C14" s="196"/>
+      <c r="D14" s="197"/>
+      <c r="N14" s="159"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="212" t="s">
+      <c r="B15" s="198" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="213"/>
-      <c r="D15" s="214"/>
-      <c r="N15" s="160"/>
+      <c r="C15" s="199"/>
+      <c r="D15" s="200"/>
+      <c r="N15" s="159"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N16" s="160"/>
+      <c r="N16" s="159"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>81</v>
@@ -48691,8 +49350,8 @@
       <c r="C17" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="N17" s="159" t="s">
-        <v>278</v>
+      <c r="N17" s="158" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -48708,13 +49367,13 @@
         <v>6</v>
       </c>
       <c r="D18" s="17"/>
-      <c r="N18" s="159" t="s">
-        <v>280</v>
+      <c r="N18" s="158" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B19" s="122">
         <f>Master!B19</f>
@@ -48729,23 +49388,23 @@
         <v>9/1/2021 values</v>
       </c>
       <c r="F19" s="143"/>
-      <c r="N19" s="159" t="s">
-        <v>279</v>
+      <c r="N19" s="158" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="178">
+      <c r="B20" s="177">
         <v>3525</v>
       </c>
-      <c r="C20" s="178">
+      <c r="C20" s="177">
         <v>1020</v>
       </c>
       <c r="D20" s="11"/>
-      <c r="N20" s="159" t="s">
-        <v>281</v>
+      <c r="N20" s="158" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -48762,13 +49421,13 @@
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="30"/>
-      <c r="N21" s="159" t="s">
-        <v>283</v>
+      <c r="N21" s="158" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B22" s="122">
         <f>Master!B22</f>
@@ -48777,13 +49436,13 @@
       <c r="C22"/>
       <c r="D22" s="123"/>
       <c r="E22" s="30"/>
-      <c r="N22" s="159" t="s">
-        <v>282</v>
+      <c r="N22" s="158" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B23" s="144">
         <f>Master!B23</f>
@@ -48792,13 +49451,13 @@
       <c r="C23"/>
       <c r="D23" s="123"/>
       <c r="E23" s="30"/>
-      <c r="N23" s="159" t="s">
-        <v>284</v>
+      <c r="N23" s="158" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B24" s="122">
         <f>Master!B24</f>
@@ -48807,13 +49466,13 @@
       <c r="C24"/>
       <c r="D24" s="123"/>
       <c r="E24" s="30"/>
-      <c r="N24" s="159" t="s">
-        <v>285</v>
+      <c r="N24" s="158" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="B25" s="122">
         <f>Master!B25</f>
@@ -48822,17 +49481,17 @@
       <c r="C25"/>
       <c r="D25" s="123"/>
       <c r="E25" s="30"/>
-      <c r="N25" s="179" t="s">
-        <v>331</v>
+      <c r="N25" s="178" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B26" s="30"/>
-      <c r="N26" s="160"/>
+      <c r="N26" s="159"/>
     </row>
     <row r="27" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="113" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B27" s="114" t="s">
         <v>34</v>
@@ -48870,14 +49529,14 @@
       <c r="M27" s="114" t="s">
         <v>79</v>
       </c>
-      <c r="N27" s="155" t="str">
+      <c r="N27" s="154" t="str">
         <f>N3</f>
         <v>HELP, CONTEXT, and SUGGESTIONS</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="138" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="108" t="str">
@@ -48905,8 +49564,8 @@
       <c r="J28" s="108"/>
       <c r="K28" s="108"/>
       <c r="L28" s="108"/>
-      <c r="N28" s="156" t="s">
-        <v>286</v>
+      <c r="N28" s="155" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -48954,13 +49613,13 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N29" s="159" t="s">
-        <v>287</v>
+      <c r="N29" s="158" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="107" t="str">
@@ -49003,8 +49662,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N30" s="159" t="s">
-        <v>288</v>
+      <c r="N30" s="158" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -49052,13 +49711,13 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N31" s="159" t="s">
-        <v>289</v>
+      <c r="N31" s="158" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="138" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C32" s="13" t="str">
         <f>IF(C$28&lt;&gt;"",SUM(B19:C19),"")</f>
@@ -49100,8 +49759,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N32" s="156" t="s">
-        <v>290</v>
+      <c r="N32" s="155" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -49153,7 +49812,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N33" s="160"/>
+      <c r="N33" s="159"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
@@ -49204,7 +49863,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N34" s="160"/>
+      <c r="N34" s="159"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
@@ -49254,7 +49913,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N35" s="160"/>
+      <c r="N35" s="159"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
@@ -49304,7 +49963,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N36" s="160"/>
+      <c r="N36" s="159"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
@@ -49355,7 +50014,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N37" s="160"/>
+      <c r="N37" s="159"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
@@ -49406,15 +50065,15 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N38" s="160"/>
+      <c r="N38" s="159"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C39"/>
-      <c r="N39" s="159" t="s">
-        <v>310</v>
+      <c r="N39" s="158" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -49461,7 +50120,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N40" s="160"/>
+      <c r="N40" s="159"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -49507,11 +50166,11 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="N41" s="160"/>
+      <c r="N41" s="159"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="13" t="str">
@@ -49554,8 +50213,8 @@
         <f>IF(L$28&lt;&gt;"",VLOOKUP(L40*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(L41*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
         <v/>
       </c>
-      <c r="N42" s="159" t="s">
-        <v>291</v>
+      <c r="N42" s="158" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -49604,7 +50263,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N43" s="160"/>
+      <c r="N43" s="159"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
@@ -49652,7 +50311,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N44" s="160"/>
+      <c r="N44" s="159"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
@@ -49700,7 +50359,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N45" s="160"/>
+      <c r="N45" s="159"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
@@ -49748,7 +50407,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N46" s="160"/>
+      <c r="N46" s="159"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
@@ -49796,7 +50455,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N47" s="160"/>
+      <c r="N47" s="159"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
@@ -49844,11 +50503,11 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N48" s="160"/>
+      <c r="N48" s="159"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B49" s="54"/>
       <c r="C49" s="33" t="str">
@@ -49891,13 +50550,13 @@
         <f>IF(L$28&lt;&gt;"",1.5-0.21/9/2-VLOOKUP(L41,MandatoryConservation!$C$5:$P$13,13),"")</f>
         <v/>
       </c>
-      <c r="N49" s="159" t="s">
-        <v>292</v>
+      <c r="N49" s="158" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="138" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="13" t="str">
@@ -49941,11 +50600,11 @@
         <v/>
       </c>
       <c r="M50" s="30"/>
-      <c r="N50" s="157" t="s">
-        <v>293</v>
+      <c r="N50" s="156" t="s">
+        <v>284</v>
       </c>
       <c r="P50" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
@@ -49954,7 +50613,7 @@
         <v xml:space="preserve">    To Upper Basin</v>
       </c>
       <c r="B51" s="105" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="C51" s="87" t="str">
         <f>IF(OR(C$28="",$A52=""),"",MAX(0,MAX(0,C50-SUM(C52:C57))))</f>
@@ -49997,7 +50656,7 @@
         <v/>
       </c>
       <c r="M51" s="19"/>
-      <c r="N51" s="161"/>
+      <c r="N51" s="160"/>
       <c r="P51" s="87" t="str">
         <f>IF(OR(P$28="",$A51=""),"",MAX(P28-($B$24)-P56*$B$21/SUM($B$21:$C$21),0))</f>
         <v/>
@@ -50053,7 +50712,7 @@
         <v/>
       </c>
       <c r="M52" s="19"/>
-      <c r="N52" s="161"/>
+      <c r="N52" s="160"/>
       <c r="P52" s="87" t="str">
         <f>IF(OR(P$28="",$A52=""),"",P29+P30-P31-P56*$C$21/SUM($B$21:$C$21)-P53+MIN($B$24,P28))</f>
         <v/>
@@ -50065,7 +50724,7 @@
         <v xml:space="preserve">    To Mexico</v>
       </c>
       <c r="B53" s="106" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C53" s="88" t="str">
         <f>IF(OR(C$28="",$A53=""),"",MIN(C49-C54/2,C$50-SUM(C54:C57))-C57*(1.5/8.7))</f>
@@ -50108,7 +50767,7 @@
         <v/>
       </c>
       <c r="M53" s="19"/>
-      <c r="N53" s="161"/>
+      <c r="N53" s="160"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
@@ -50160,7 +50819,7 @@
         <v/>
       </c>
       <c r="M54" s="19"/>
-      <c r="N54" s="161"/>
+      <c r="N54" s="160"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
@@ -50212,7 +50871,7 @@
         <v/>
       </c>
       <c r="M55" s="19"/>
-      <c r="N55" s="161"/>
+      <c r="N55" s="160"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
@@ -50220,101 +50879,101 @@
         <v xml:space="preserve">    To Shared, Reserve</v>
       </c>
       <c r="B56" s="106" t="s">
-        <v>216</v>
-      </c>
-      <c r="C56" s="171" t="str">
+        <v>214</v>
+      </c>
+      <c r="C56" s="170" t="str">
         <f>IF(OR(C$28="",$A56=""),"",IF(C$50&gt;C48,C48,C50))</f>
         <v/>
       </c>
-      <c r="D56" s="171" t="str">
+      <c r="D56" s="170" t="str">
         <f t="shared" ref="D56:L56" si="18">IF(OR(D$28="",$A56=""),"",IF(D$50&gt;D48,D48,D50))</f>
         <v/>
       </c>
-      <c r="E56" s="171" t="str">
+      <c r="E56" s="170" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="F56" s="171" t="str">
+      <c r="F56" s="170" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="G56" s="171" t="str">
+      <c r="G56" s="170" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H56" s="171" t="str">
+      <c r="H56" s="170" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I56" s="171" t="str">
+      <c r="I56" s="170" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="J56" s="171" t="str">
+      <c r="J56" s="170" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="K56" s="171" t="str">
+      <c r="K56" s="170" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="L56" s="171" t="str">
+      <c r="L56" s="170" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="M56" s="19"/>
-      <c r="N56" s="161"/>
+      <c r="N56" s="160"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f>IF(A31="","","    To "&amp;A31)</f>
         <v xml:space="preserve">    To Havasu / Parker evaporation and ET</v>
       </c>
-      <c r="B57" s="170" t="s">
-        <v>326</v>
-      </c>
-      <c r="C57" s="172" t="str">
+      <c r="B57" s="169" t="s">
+        <v>317</v>
+      </c>
+      <c r="C57" s="171" t="str">
         <f>IF(OR(C$28="",$A57=""),"",MIN(C31,C50-C56))</f>
         <v/>
       </c>
-      <c r="D57" s="172" t="str">
+      <c r="D57" s="171" t="str">
         <f t="shared" ref="D57:L57" si="19">IF(OR(D$28="",$A57=""),"",MIN(D31,D50-D56))</f>
         <v/>
       </c>
-      <c r="E57" s="172" t="str">
+      <c r="E57" s="171" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="F57" s="172" t="str">
+      <c r="F57" s="171" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="G57" s="172" t="str">
+      <c r="G57" s="171" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="H57" s="172" t="str">
+      <c r="H57" s="171" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I57" s="172" t="str">
+      <c r="I57" s="171" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J57" s="172" t="str">
+      <c r="J57" s="171" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="K57" s="172" t="str">
+      <c r="K57" s="171" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="L57" s="172" t="str">
+      <c r="L57" s="171" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="M57" s="19"/>
-      <c r="N57" s="161"/>
+      <c r="N57" s="160"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B58" s="20"/>
@@ -50323,11 +50982,11 @@
       <c r="E58" s="19"/>
       <c r="F58" s="129"/>
       <c r="G58" s="30"/>
-      <c r="N58" s="160"/>
+      <c r="N58" s="159"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="112" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B59" s="109"/>
       <c r="C59" s="109"/>
@@ -50341,7 +51000,7 @@
       <c r="K59" s="109"/>
       <c r="L59" s="109"/>
       <c r="M59" s="109"/>
-      <c r="N59" s="155" t="str">
+      <c r="N59" s="154" t="str">
         <f>N3</f>
         <v>HELP, CONTEXT, and SUGGESTIONS</v>
       </c>
@@ -50365,8 +51024,8 @@
       <c r="M60" s="111" t="s">
         <v>79</v>
       </c>
-      <c r="N60" s="156" t="s">
-        <v>294</v>
+      <c r="N60" s="155" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
@@ -50388,8 +51047,8 @@
         <f>SUM(C61:L61)</f>
         <v>0</v>
       </c>
-      <c r="N61" s="162" t="s">
-        <v>295</v>
+      <c r="N61" s="161" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
@@ -50411,8 +51070,8 @@
         <f>SUM(C62:L62)</f>
         <v>0</v>
       </c>
-      <c r="N62" s="163" t="s">
-        <v>296</v>
+      <c r="N62" s="162" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
@@ -50464,8 +51123,8 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="N63" s="159" t="s">
-        <v>297</v>
+      <c r="N63" s="158" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
@@ -50513,8 +51172,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="N64" s="159" t="s">
-        <v>298</v>
+      <c r="N64" s="158" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -50522,23 +51181,23 @@
         <f>IF(A64="","","   Enter withdraw [maf] within available water")</f>
         <v xml:space="preserve">   Enter withdraw [maf] within available water</v>
       </c>
-      <c r="C65" s="240" t="str">
+      <c r="C65" s="183" t="str">
         <f>IF(C$28&lt;&gt;"",IF(C64&gt;4.2,4.2,MAX(C64,0)-0.01),"")</f>
         <v/>
       </c>
-      <c r="D65" s="240" t="str">
+      <c r="D65" s="183" t="str">
         <f t="shared" ref="D65:G65" si="22">IF(D$28&lt;&gt;"",IF(D64&gt;4.2,4.2,MAX(D64,0)-0.01),"")</f>
         <v/>
       </c>
-      <c r="E65" s="240" t="str">
+      <c r="E65" s="183" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="F65" s="240" t="str">
+      <c r="F65" s="183" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="G65" s="240" t="str">
+      <c r="G65" s="183" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
@@ -50562,8 +51221,8 @@
         <f t="shared" si="23"/>
         <v>4.2</v>
       </c>
-      <c r="N65" s="159" t="s">
-        <v>311</v>
+      <c r="N65" s="158" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
@@ -50611,13 +51270,13 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="N66" s="159" t="s">
-        <v>299</v>
+      <c r="N66" s="158" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C67"/>
-      <c r="N67" s="160"/>
+      <c r="N67" s="159"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="132" t="str">
@@ -50638,8 +51297,8 @@
       <c r="M68" s="111" t="s">
         <v>79</v>
       </c>
-      <c r="N68" s="156" t="s">
-        <v>294</v>
+      <c r="N68" s="155" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -50661,8 +51320,8 @@
         <f>SUM(C69:L69)</f>
         <v>0</v>
       </c>
-      <c r="N69" s="162" t="s">
-        <v>295</v>
+      <c r="N69" s="161" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
@@ -50684,8 +51343,8 @@
         <f>SUM(C70:L70)</f>
         <v>0</v>
       </c>
-      <c r="N70" s="163" t="s">
-        <v>296</v>
+      <c r="N70" s="162" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
@@ -50737,8 +51396,8 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="N71" s="159" t="s">
-        <v>297</v>
+      <c r="N71" s="158" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
@@ -50786,8 +51445,8 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="N72" s="159" t="s">
-        <v>298</v>
+      <c r="N72" s="158" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
@@ -50820,8 +51479,8 @@
       <c r="J73" s="104"/>
       <c r="K73" s="104"/>
       <c r="L73" s="104"/>
-      <c r="N73" s="159" t="s">
-        <v>311</v>
+      <c r="N73" s="158" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
@@ -50869,13 +51528,13 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="N74" s="159" t="s">
-        <v>299</v>
+      <c r="N74" s="158" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C75"/>
-      <c r="N75" s="160"/>
+      <c r="N75" s="159"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="132" t="str">
@@ -50896,8 +51555,8 @@
       <c r="M76" s="111" t="s">
         <v>79</v>
       </c>
-      <c r="N76" s="156" t="s">
-        <v>294</v>
+      <c r="N76" s="155" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
@@ -50919,8 +51578,8 @@
         <f>SUM(C77:L77)</f>
         <v>0</v>
       </c>
-      <c r="N77" s="162" t="s">
-        <v>295</v>
+      <c r="N77" s="161" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
@@ -50942,8 +51601,8 @@
         <f>SUM(C78:L78)</f>
         <v>0</v>
       </c>
-      <c r="N78" s="163" t="s">
-        <v>296</v>
+      <c r="N78" s="162" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
@@ -50995,8 +51654,8 @@
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="N79" s="159" t="s">
-        <v>297</v>
+      <c r="N79" s="158" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
@@ -51044,8 +51703,8 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="N80" s="159" t="s">
-        <v>298</v>
+      <c r="N80" s="158" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
@@ -51078,8 +51737,8 @@
       <c r="J81" s="104"/>
       <c r="K81" s="104"/>
       <c r="L81" s="104"/>
-      <c r="N81" s="159" t="s">
-        <v>311</v>
+      <c r="N81" s="158" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
@@ -51127,13 +51786,13 @@
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="N82" s="159" t="s">
-        <v>299</v>
+      <c r="N82" s="158" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C83"/>
-      <c r="N83" s="160"/>
+      <c r="N83" s="159"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="132" t="str">
@@ -51154,8 +51813,8 @@
       <c r="M84" s="111" t="s">
         <v>79</v>
       </c>
-      <c r="N84" s="156" t="s">
-        <v>294</v>
+      <c r="N84" s="155" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
@@ -51177,8 +51836,8 @@
         <f>SUM(C85:L85)</f>
         <v>0</v>
       </c>
-      <c r="N85" s="162" t="s">
-        <v>295</v>
+      <c r="N85" s="161" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
@@ -51200,8 +51859,8 @@
         <f>SUM(C86:L86)</f>
         <v>0</v>
       </c>
-      <c r="N86" s="163" t="s">
-        <v>296</v>
+      <c r="N86" s="162" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -51253,8 +51912,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="N87" s="159" t="s">
-        <v>297</v>
+      <c r="N87" s="158" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
@@ -51302,8 +51961,8 @@
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="N88" s="159" t="s">
-        <v>298</v>
+      <c r="N88" s="158" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -51321,8 +51980,8 @@
       <c r="J89" s="131"/>
       <c r="K89" s="131"/>
       <c r="L89" s="131"/>
-      <c r="N89" s="159" t="s">
-        <v>311</v>
+      <c r="N89" s="158" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
@@ -51370,13 +52029,13 @@
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="N90" s="159" t="s">
-        <v>299</v>
+      <c r="N90" s="158" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C91"/>
-      <c r="N91" s="160"/>
+      <c r="N91" s="159"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="132" t="str">
@@ -51397,8 +52056,8 @@
       <c r="M92" s="111" t="s">
         <v>79</v>
       </c>
-      <c r="N92" s="156" t="s">
-        <v>294</v>
+      <c r="N92" s="155" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
@@ -51420,8 +52079,8 @@
         <f>SUM(C93:L93)</f>
         <v>0</v>
       </c>
-      <c r="N93" s="162" t="s">
-        <v>295</v>
+      <c r="N93" s="161" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -51443,8 +52102,8 @@
         <f>SUM(C94:L94)</f>
         <v>0</v>
       </c>
-      <c r="N94" s="163" t="s">
-        <v>296</v>
+      <c r="N94" s="162" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
@@ -51496,8 +52155,8 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="N95" s="159" t="s">
-        <v>297</v>
+      <c r="N95" s="158" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
@@ -51545,8 +52204,8 @@
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="N96" s="159" t="s">
-        <v>298</v>
+      <c r="N96" s="158" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
@@ -51579,8 +52238,8 @@
       <c r="J97" s="104"/>
       <c r="K97" s="104"/>
       <c r="L97" s="104"/>
-      <c r="N97" s="159" t="s">
-        <v>311</v>
+      <c r="N97" s="158" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
@@ -51628,13 +52287,13 @@
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="N98" s="159" t="s">
-        <v>299</v>
+      <c r="N98" s="158" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C99"/>
-      <c r="N99" s="160"/>
+      <c r="N99" s="159"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="132" t="str">
@@ -51655,8 +52314,8 @@
       <c r="M100" s="111" t="s">
         <v>79</v>
       </c>
-      <c r="N100" s="159" t="s">
-        <v>309</v>
+      <c r="N100" s="158" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
@@ -51678,7 +52337,7 @@
         <f>SUM(C101:L101)</f>
         <v>0</v>
       </c>
-      <c r="N101" s="164"/>
+      <c r="N101" s="163"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="139" t="str">
@@ -51699,7 +52358,7 @@
         <f>SUM(C102:L102)</f>
         <v>0</v>
       </c>
-      <c r="N102" s="165"/>
+      <c r="N102" s="164"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="145" t="str">
@@ -51750,7 +52409,7 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="N103" s="160"/>
+      <c r="N103" s="159"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="str">
@@ -51797,7 +52456,7 @@
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="N104" s="160"/>
+      <c r="N104" s="159"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="138" t="str">
@@ -51814,7 +52473,7 @@
       <c r="J105" s="29"/>
       <c r="K105" s="29"/>
       <c r="L105" s="29"/>
-      <c r="N105" s="160"/>
+      <c r="N105" s="159"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="21" t="str">
@@ -51861,15 +52520,15 @@
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="N106" s="160"/>
+      <c r="N106" s="159"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C107"/>
-      <c r="N107" s="160"/>
+      <c r="N107" s="159"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="112" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B108" s="112"/>
       <c r="C108" s="112"/>
@@ -51883,19 +52542,19 @@
       <c r="K108" s="112"/>
       <c r="L108" s="112"/>
       <c r="M108" s="112"/>
-      <c r="N108" s="159" t="s">
-        <v>300</v>
+      <c r="N108" s="158" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C109"/>
       <c r="M109" t="s">
         <v>114</v>
       </c>
-      <c r="N109" s="160"/>
+      <c r="N109" s="159"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
@@ -51939,15 +52598,15 @@
         <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
-      <c r="L110" s="150" t="str">
+      <c r="L110" s="149" t="str">
         <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
-      <c r="M110" s="151">
+      <c r="M110" s="150">
         <f ca="1">IF(OR($A110=""),"",SUM(C110:L110))</f>
         <v>0</v>
       </c>
-      <c r="N110" s="164"/>
+      <c r="N110" s="163"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
@@ -51991,15 +52650,15 @@
         <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
-      <c r="L111" s="150" t="str">
+      <c r="L111" s="149" t="str">
         <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
-      <c r="M111" s="151">
+      <c r="M111" s="150">
         <f t="shared" ref="M111:M115" ca="1" si="44">IF(OR($A111=""),"",SUM(C111:L111))</f>
         <v>0</v>
       </c>
-      <c r="N111" s="164"/>
+      <c r="N111" s="163"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
@@ -52043,15 +52702,15 @@
         <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
-      <c r="L112" s="150" t="str">
+      <c r="L112" s="149" t="str">
         <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
-      <c r="M112" s="151">
+      <c r="M112" s="150">
         <f t="shared" ca="1" si="44"/>
         <v>0</v>
       </c>
-      <c r="N112" s="164"/>
+      <c r="N112" s="163"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
@@ -52095,15 +52754,15 @@
         <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
-      <c r="L113" s="150" t="str">
+      <c r="L113" s="149" t="str">
         <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
-      <c r="M113" s="151">
+      <c r="M113" s="150">
         <f t="shared" ca="1" si="44"/>
         <v>0</v>
       </c>
-      <c r="N113" s="164"/>
+      <c r="N113" s="163"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
@@ -52147,15 +52806,15 @@
         <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
-      <c r="L114" s="150" t="str">
+      <c r="L114" s="149" t="str">
         <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
-      <c r="M114" s="151">
+      <c r="M114" s="150">
         <f t="shared" ca="1" si="44"/>
         <v>0</v>
       </c>
-      <c r="N114" s="164"/>
+      <c r="N114" s="163"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
@@ -52199,15 +52858,15 @@
         <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
-      <c r="L115" s="150" t="str">
+      <c r="L115" s="149" t="str">
         <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
-      <c r="M115" s="151">
+      <c r="M115" s="150">
         <f t="shared" ca="1" si="44"/>
         <v>0</v>
       </c>
-      <c r="N115" s="164"/>
+      <c r="N115" s="163"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
@@ -52255,11 +52914,11 @@
         <v/>
       </c>
       <c r="M116" s="22"/>
-      <c r="N116" s="166"/>
+      <c r="N116" s="165"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="37"/>
@@ -52272,7 +52931,7 @@
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
-      <c r="N117" s="160"/>
+      <c r="N117" s="159"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
@@ -52319,7 +52978,7 @@
         <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
-      <c r="N118" s="160"/>
+      <c r="N118" s="159"/>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
@@ -52366,7 +53025,7 @@
         <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
-      <c r="N119" s="160"/>
+      <c r="N119" s="159"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
@@ -52413,7 +53072,7 @@
         <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
-      <c r="N120" s="160"/>
+      <c r="N120" s="159"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
@@ -52460,7 +53119,7 @@
         <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
-      <c r="N121" s="160"/>
+      <c r="N121" s="159"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
@@ -52507,7 +53166,7 @@
         <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
-      <c r="N122" s="160"/>
+      <c r="N122" s="159"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" t="str">
@@ -52554,7 +53213,7 @@
         <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
-      <c r="N123" s="160"/>
+      <c r="N123" s="159"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
@@ -52570,7 +53229,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
-      <c r="N124" s="160"/>
+      <c r="N124" s="159"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
@@ -52617,7 +53276,7 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="N125" s="160"/>
+      <c r="N125" s="159"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
@@ -52664,7 +53323,7 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="N126" s="160"/>
+      <c r="N126" s="159"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
@@ -52711,7 +53370,7 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="N127" s="160"/>
+      <c r="N127" s="159"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
@@ -52758,7 +53417,7 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="N128" s="160"/>
+      <c r="N128" s="159"/>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
@@ -52805,7 +53464,7 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="N129" s="160"/>
+      <c r="N129" s="159"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" t="str">
@@ -52852,11 +53511,11 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="N130" s="160"/>
+      <c r="N130" s="159"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B131" s="1"/>
       <c r="C131" s="13" t="str">
@@ -52899,15 +53558,15 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="N131" s="159" t="s">
-        <v>301</v>
+      <c r="N131" s="158" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="132" spans="1:14" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="215" t="s">
-        <v>274</v>
-      </c>
-      <c r="B132" s="216"/>
+      <c r="A132" s="201" t="s">
+        <v>265</v>
+      </c>
+      <c r="B132" s="202"/>
       <c r="C132" s="140">
         <v>0.5</v>
       </c>
@@ -52924,13 +53583,13 @@
       <c r="J132" s="140"/>
       <c r="K132" s="140"/>
       <c r="L132" s="140"/>
-      <c r="N132" s="156" t="s">
-        <v>302</v>
+      <c r="N132" s="155" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B133" s="1"/>
       <c r="C133" s="13" t="str">
@@ -52973,13 +53632,13 @@
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="N133" s="159" t="s">
-        <v>313</v>
+      <c r="N133" s="158" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B134" s="1"/>
       <c r="C134" s="13" t="str">
@@ -53022,8 +53681,8 @@
         <f t="shared" si="51"/>
         <v/>
       </c>
-      <c r="N134" s="159" t="s">
-        <v>313</v>
+      <c r="N134" s="158" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
@@ -53071,8 +53730,8 @@
         <f>IF(L$28&lt;&gt;"",VLOOKUP(L133*1000000,'Powell-Elevation-Area'!$B$5:$H$689,7),"")</f>
         <v/>
       </c>
-      <c r="N135" s="159" t="s">
-        <v>313</v>
+      <c r="N135" s="158" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
@@ -53120,22 +53779,22 @@
         <f>IF(L$28&lt;&gt;"",VLOOKUP(L134*1000000,'Mead-Elevation-Area'!$B$5:$H$689,7),"")</f>
         <v/>
       </c>
-      <c r="N136" s="159" t="s">
-        <v>313</v>
+      <c r="N136" s="158" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B137" s="1"/>
-      <c r="N137" s="159" t="s">
-        <v>303</v>
+      <c r="N137" s="158" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B138" s="1"/>
       <c r="C138" s="13" t="str">
@@ -53178,13 +53837,13 @@
         <f>IF(L$28&lt;&gt;"",-L133+L40+L28-L65-VLOOKUP(L40*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000,"")</f>
         <v/>
       </c>
-      <c r="N138" s="159" t="s">
-        <v>304</v>
+      <c r="N138" s="158" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="21" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B139" s="1"/>
       <c r="C139" s="63" t="str">
@@ -53227,13 +53886,13 @@
         <f>IF(L$28&lt;&gt;"",VLOOKUP(L135,PowellReleaseTemperature!$A$5:$B$11,2),"")</f>
         <v/>
       </c>
-      <c r="N139" s="159" t="s">
-        <v>305</v>
+      <c r="N139" s="158" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="140" spans="1:14" s="65" customFormat="1" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="94" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B140" s="64"/>
       <c r="C140" s="93" t="str">
@@ -53276,8 +53935,8 @@
         <f>IF(L$28&lt;&gt;"",VLOOKUP(L$135,PowellReleaseTemperature!$A$5:$E$11,5),"")</f>
         <v/>
       </c>
-      <c r="N140" s="159" t="s">
-        <v>307</v>
+      <c r="N140" s="158" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="141" spans="1:14" s="65" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -53325,21 +53984,27 @@
         <f>IF(L$28&lt;&gt;"",VLOOKUP(L$135,PowellReleaseTemperature!$A$5:$F$11,6),"")</f>
         <v/>
       </c>
-      <c r="N141" s="159" t="s">
-        <v>306</v>
+      <c r="N141" s="158" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A142" s="152" t="s">
-        <v>275</v>
+      <c r="A142" s="151" t="s">
+        <v>266</v>
       </c>
       <c r="C142" s="19"/>
-      <c r="N142" s="159" t="s">
-        <v>308</v>
+      <c r="N142" s="158" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="A132:B132"/>
     <mergeCell ref="C8:G8"/>
@@ -53348,12 +54013,6 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
   </mergeCells>
   <conditionalFormatting sqref="H73">
     <cfRule type="cellIs" dxfId="43" priority="63" operator="greaterThan">
@@ -53810,26 +54469,26 @@
       </c>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="234" t="s">
+      <c r="D3" s="220" t="s">
         <v>138</v>
       </c>
-      <c r="E3" s="234"/>
-      <c r="F3" s="234" t="s">
+      <c r="E3" s="220"/>
+      <c r="F3" s="220" t="s">
         <v>139</v>
       </c>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234" t="s">
+      <c r="G3" s="220"/>
+      <c r="H3" s="220"/>
+      <c r="I3" s="220" t="s">
         <v>140</v>
       </c>
-      <c r="J3" s="234"/>
-      <c r="K3" s="234"/>
-      <c r="L3" s="149"/>
-      <c r="M3" s="234" t="s">
+      <c r="J3" s="220"/>
+      <c r="K3" s="220"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="220" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="234"/>
-      <c r="O3" s="234"/>
+      <c r="N3" s="220"/>
+      <c r="O3" s="220"/>
     </row>
     <row r="4" spans="1:16" s="51" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="50" t="s">
@@ -53906,7 +54565,7 @@
       <c r="H5" s="24">
         <v>350</v>
       </c>
-      <c r="I5" s="147">
+      <c r="I5" s="146">
         <f t="shared" ref="I5:I13" si="0">SUM(D5,F5)</f>
         <v>720</v>
       </c>
@@ -53932,7 +54591,7 @@
         <f t="shared" ref="O5:O13" si="4">SUM(M5:N5)/1000</f>
         <v>0.27500000000000002</v>
       </c>
-      <c r="P5" s="148">
+      <c r="P5" s="147">
         <f t="shared" ref="P5:P13" si="5">SUM(L5,O5)</f>
         <v>1.375</v>
       </c>
@@ -53963,7 +54622,7 @@
       <c r="H6" s="24">
         <v>350</v>
       </c>
-      <c r="I6" s="147">
+      <c r="I6" s="146">
         <f t="shared" si="0"/>
         <v>640</v>
       </c>
@@ -53989,7 +54648,7 @@
         <f t="shared" si="4"/>
         <v>0.17100000000000001</v>
       </c>
-      <c r="P6" s="148">
+      <c r="P6" s="147">
         <f t="shared" si="5"/>
         <v>1.1879999999999999</v>
       </c>
@@ -54020,7 +54679,7 @@
       <c r="H7" s="24">
         <v>300</v>
       </c>
-      <c r="I7" s="147">
+      <c r="I7" s="146">
         <f t="shared" si="0"/>
         <v>640</v>
       </c>
@@ -54046,7 +54705,7 @@
         <f t="shared" si="4"/>
         <v>0.16200000000000001</v>
       </c>
-      <c r="P7" s="148">
+      <c r="P7" s="147">
         <f t="shared" si="5"/>
         <v>1.129</v>
       </c>
@@ -54077,7 +54736,7 @@
       <c r="H8" s="24">
         <v>250</v>
       </c>
-      <c r="I8" s="147">
+      <c r="I8" s="146">
         <f t="shared" si="0"/>
         <v>640</v>
       </c>
@@ -54103,7 +54762,7 @@
         <f t="shared" si="4"/>
         <v>0.154</v>
       </c>
-      <c r="P8" s="148">
+      <c r="P8" s="147">
         <f t="shared" si="5"/>
         <v>1.071</v>
       </c>
@@ -54134,7 +54793,7 @@
       <c r="H9" s="24">
         <v>200</v>
       </c>
-      <c r="I9" s="147">
+      <c r="I9" s="146">
         <f t="shared" si="0"/>
         <v>640</v>
       </c>
@@ -54160,7 +54819,7 @@
         <f t="shared" si="4"/>
         <v>0.14599999999999999</v>
       </c>
-      <c r="P9" s="148">
+      <c r="P9" s="147">
         <f t="shared" si="5"/>
         <v>1.0129999999999999</v>
       </c>
@@ -54191,7 +54850,7 @@
       <c r="H10" s="24">
         <v>0</v>
       </c>
-      <c r="I10" s="147">
+      <c r="I10" s="146">
         <f t="shared" si="0"/>
         <v>592</v>
       </c>
@@ -54217,7 +54876,7 @@
         <f t="shared" si="4"/>
         <v>0.104</v>
       </c>
-      <c r="P10" s="148">
+      <c r="P10" s="147">
         <f t="shared" si="5"/>
         <v>0.72099999999999997</v>
       </c>
@@ -54248,7 +54907,7 @@
       <c r="H11" s="24">
         <v>0</v>
       </c>
-      <c r="I11" s="147">
+      <c r="I11" s="146">
         <f t="shared" si="0"/>
         <v>512</v>
       </c>
@@ -54270,11 +54929,11 @@
       <c r="N11" s="24">
         <v>30</v>
       </c>
-      <c r="O11" s="148">
+      <c r="O11" s="147">
         <f t="shared" si="4"/>
         <v>0.08</v>
       </c>
-      <c r="P11" s="148">
+      <c r="P11" s="147">
         <f t="shared" si="5"/>
         <v>0.61299999999999999</v>
       </c>
@@ -54305,7 +54964,7 @@
       <c r="H12" s="24">
         <v>0</v>
       </c>
-      <c r="I12" s="147">
+      <c r="I12" s="146">
         <f t="shared" si="0"/>
         <v>192</v>
       </c>
@@ -54331,7 +54990,7 @@
         <f t="shared" si="4"/>
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="P12" s="148">
+      <c r="P12" s="147">
         <f t="shared" si="5"/>
         <v>0.24100000000000002</v>
       </c>
@@ -56183,7 +56842,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I3" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="58" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -56206,7 +56865,7 @@
         <v>187</v>
       </c>
       <c r="G4" s="133" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="58" customFormat="1" ht="60" x14ac:dyDescent="0.25">
